--- a/src/attributions/attributions_saliency_traj_208.xlsx
+++ b/src/attributions/attributions_saliency_traj_208.xlsx
@@ -1004,5692 +1004,5692 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0008595986291766167</v>
+        <v>1.62428077601362e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>4.782561518368311e-05</v>
+        <v>6.367604510160163e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001408786629326642</v>
+        <v>4.041526699438691e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003018597199115902</v>
+        <v>0.0001441335625713691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001189228059956804</v>
+        <v>5.244758358458057e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001645743031986058</v>
+        <v>6.665493856417015e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002352712617721409</v>
+        <v>1.646208329475485e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>5.031451291870326e-05</v>
+        <v>1.493100512561796e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>3.800912236329168e-05</v>
+        <v>8.262411938630976e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007687862380407751</v>
+        <v>1.770727976690978e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>2.720741213124711e-05</v>
+        <v>8.260270260507241e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001893154549179599</v>
+        <v>1.616982808627654e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001883126969914883</v>
+        <v>8.859715308062732e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002376757620368153</v>
+        <v>1.721101580187678e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001156355065177195</v>
+        <v>2.089080953737721e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0002164781180908903</v>
+        <v>1.242289545189124e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79906674020458e-05</v>
+        <v>2.546937321312726e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>4.863908907282166e-05</v>
+        <v>5.985018560750177e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>4.279829954612069e-05</v>
+        <v>9.949309060175437e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>5.751458957092836e-05</v>
+        <v>6.49788216833258e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>7.904009180492721e-06</v>
+        <v>2.766665602393914e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>4.643780266633257e-05</v>
+        <v>4.050460847793147e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.169554798252648e-05</v>
+        <v>1.193380740005523e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>4.71240418846719e-05</v>
+        <v>1.086552947526798e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.716771945822984e-05</v>
+        <v>1.094427898351569e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.170146010234021e-05</v>
+        <v>1.251378671440762e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.546089283190668e-05</v>
+        <v>4.399688805278856e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.66123809828423e-05</v>
+        <v>4.759864168590866e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001090662772185169</v>
+        <v>2.120204953826033e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.622792089823633e-05</v>
+        <v>1.531348607386462e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002327545516891405</v>
+        <v>5.019101809011772e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0001167124792118557</v>
+        <v>1.00830275187036e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.086080919776578e-05</v>
+        <v>1.073126622941345e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.214654523413628e-05</v>
+        <v>3.321221811347641e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0002141594741260633</v>
+        <v>7.725394425506238e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.679779496858828e-05</v>
+        <v>1.867826722445898e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0001530635199742392</v>
+        <v>6.931888947292464e-07</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0002521546848583966</v>
+        <v>2.839290391420946e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.751368811004795e-05</v>
+        <v>9.439508176001254e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0001987871946766973</v>
+        <v>2.041778316197451e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.179184932378121e-05</v>
+        <v>1.110279481508769e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.805509913945571e-05</v>
+        <v>2.557700645411387e-05</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.7205452574417e-05</v>
+        <v>1.291523403779138e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.123016045312397e-05</v>
+        <v>1.15436141641112e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>8.764234735281207e-06</v>
+        <v>9.074615263671149e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0002824300026986748</v>
+        <v>4.693483788287267e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0002445245918352157</v>
+        <v>4.180628820904531e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.914598346455023e-05</v>
+        <v>1.423756748408778e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.000153901448356919</v>
+        <v>9.682410745881498e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0001521361991763115</v>
+        <v>2.027794471359812e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0001521652447991073</v>
+        <v>4.92618273710832e-05</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.066369441105053e-05</v>
+        <v>2.233357236036682e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.000148145278217271</v>
+        <v>3.378826659172773e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.255111889506225e-06</v>
+        <v>5.987607892166125e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002593895769678056</v>
+        <v>9.375136869493872e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.681657886365429e-05</v>
+        <v>3.021170778083615e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.438405449036509e-05</v>
+        <v>4.59087204944808e-05</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.546474519884214e-05</v>
+        <v>3.20234612445347e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.810233804164454e-06</v>
+        <v>1.693103695288301e-05</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.532284634071402e-05</v>
+        <v>1.79819962795591e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001063601230271161</v>
+        <v>1.559652673677192e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0003220135986339301</v>
+        <v>4.436089511727914e-05</v>
       </c>
       <c r="BK2" t="n">
-        <v>5.049801984569058e-05</v>
+        <v>8.693696145201102e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.589335417724214e-05</v>
+        <v>1.460725252400152e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0001158050581580028</v>
+        <v>4.197127054794692e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.998630199930631e-05</v>
+        <v>5.804010470455978e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.109309131512418e-05</v>
+        <v>7.80183108872734e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0002236360305687413</v>
+        <v>8.986366992758121e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.28941096086055e-05</v>
+        <v>6.535633929161122e-06</v>
       </c>
       <c r="BR2" t="n">
-        <v>4.074063690495677e-05</v>
+        <v>6.693412160529988e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.274400165129919e-05</v>
+        <v>1.105071805795887e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>4.401513797347434e-05</v>
+        <v>1.403586520609679e-05</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0002070279442705214</v>
+        <v>3.643895979621448e-05</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001675707171671093</v>
+        <v>1.146397335105576e-05</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.778517227852717e-05</v>
+        <v>4.205521690892056e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0001996022474486381</v>
+        <v>5.512244388228282e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>4.894439916824922e-05</v>
+        <v>6.631504675169708e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>4.379779420560226e-05</v>
+        <v>5.088514285489509e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.54013248195406e-05</v>
+        <v>1.199636426463258e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.358913090778515e-05</v>
+        <v>2.952109025500249e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.199183290940709e-05</v>
+        <v>1.268454752789694e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0001810364046832547</v>
+        <v>2.917932079071761e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0001424949441570789</v>
+        <v>4.264887593308231e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.22929845424369e-05</v>
+        <v>4.570769760903204e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>7.39530150895007e-05</v>
+        <v>3.476025085547008e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>3.713372643687762e-05</v>
+        <v>2.152588058379479e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>9.378891263622791e-08</v>
+        <v>7.693131465202896e-07</v>
       </c>
       <c r="CJ2" t="n">
-        <v>5.143488670000806e-05</v>
+        <v>5.585101007454796e-06</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.267577226826688e-05</v>
+        <v>4.635905042960076e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.400737568881596e-06</v>
+        <v>2.009857325901976e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>2.005431997531559e-05</v>
+        <v>9.868870620266534e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.496776167186908e-05</v>
+        <v>5.040422911406495e-05</v>
       </c>
       <c r="CO2" t="n">
-        <v>7.135243322409224e-06</v>
+        <v>2.954179399239365e-05</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.168230614392087e-05</v>
+        <v>2.210755701526068e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.931980270659551e-05</v>
+        <v>1.839468495745678e-05</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.123259739368223e-05</v>
+        <v>1.168327344203135e-05</v>
       </c>
       <c r="CS2" t="n">
-        <v>3.950909012928605e-05</v>
+        <v>2.888989183702506e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001559121446916834</v>
+        <v>1.870365395006957e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>3.106995336565888e-06</v>
+        <v>8.811643965600524e-07</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0001620385592104867</v>
+        <v>3.263486178184394e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.000119622221973259</v>
+        <v>1.106337913370226e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>4.726275074062869e-05</v>
+        <v>6.868516720714979e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.034311470808461e-05</v>
+        <v>3.354521322762594e-05</v>
       </c>
       <c r="CZ2" t="n">
-        <v>6.77537354931701e-06</v>
+        <v>2.086386302835308e-05</v>
       </c>
       <c r="DA2" t="n">
-        <v>8.907508345146198e-06</v>
+        <v>1.406024125572003e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>6.768175080651417e-05</v>
+        <v>9.885128747555427e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.707305065996479e-05</v>
+        <v>2.257725100207608e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.759322109748609e-06</v>
+        <v>3.711887075041886e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.688739394012373e-05</v>
+        <v>1.643442919885274e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0002434708585496992</v>
+        <v>4.760914453072473e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.025352998520248e-05</v>
+        <v>2.292115095769987e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>8.74960096552968e-05</v>
+        <v>3.729278250830248e-05</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.606424459372647e-05</v>
+        <v>5.404363400884904e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.467754191253334e-05</v>
+        <v>1.976031308004167e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0001301404845435172</v>
+        <v>1.950671321537811e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>4.661522689275444e-05</v>
+        <v>1.945419171534013e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>5.37555679329671e-05</v>
+        <v>2.593768385850126e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>2.163504541385919e-05</v>
+        <v>3.120285327895544e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0001583239645697176</v>
+        <v>2.027546725003049e-05</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.016190748894587e-05</v>
+        <v>9.43762825045269e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001007032769848593</v>
+        <v>3.04629465972539e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.073609382729046e-06</v>
+        <v>3.780514452955686e-05</v>
       </c>
       <c r="DS2" t="n">
-        <v>2.213982224930078e-05</v>
+        <v>4.22555604018271e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>2.472601408953778e-05</v>
+        <v>1.107448770198971e-05</v>
       </c>
       <c r="DU2" t="n">
-        <v>4.773158252646681e-06</v>
+        <v>1.76054127223324e-05</v>
       </c>
       <c r="DV2" t="n">
-        <v>8.949937182478607e-07</v>
+        <v>1.055424399964977e-05</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.111272235400975e-05</v>
+        <v>5.684729330823757e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>7.609098975080997e-05</v>
+        <v>1.296178470511222e-05</v>
       </c>
       <c r="DY2" t="n">
-        <v>5.279372999211773e-05</v>
+        <v>1.109043637370632e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>6.772038614144549e-05</v>
+        <v>1.817011798266321e-05</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.319877992500551e-05</v>
+        <v>3.132011261186562e-05</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.161806150979828e-05</v>
+        <v>1.266548406420043e-05</v>
       </c>
       <c r="EC2" t="n">
-        <v>3.242302045691758e-05</v>
+        <v>3.424621809244854e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0002224839117843658</v>
+        <v>1.554037953610532e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>2.673288918231265e-06</v>
+        <v>1.179021091957111e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0002953070506919175</v>
+        <v>2.928616959252395e-05</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0002320659550605342</v>
+        <v>8.303778486151714e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.691398367460351e-05</v>
+        <v>9.551297353027621e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>7.042566721793264e-06</v>
+        <v>1.785717540769838e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>8.345153037225828e-05</v>
+        <v>4.958898898621555e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>6.073416079743765e-05</v>
+        <v>1.179447372123832e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>4.529721627477556e-05</v>
+        <v>3.813776856986806e-06</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001223955187015235</v>
+        <v>8.849856385495514e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.324315159465186e-05</v>
+        <v>1.563838304718956e-05</v>
       </c>
       <c r="EO2" t="n">
-        <v>9.679060894995928e-06</v>
+        <v>1.245462590304669e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00011075685324613</v>
+        <v>1.262033151760988e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>8.553336556360591e-06</v>
+        <v>1.385594441671856e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.000108602485852316</v>
+        <v>2.043878339463845e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.444958045089152e-05</v>
+        <v>1.911350409500301e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.704015448922291e-05</v>
+        <v>2.911599585786462e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001476087054470554</v>
+        <v>4.4749926928489e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.532664075260982e-05</v>
+        <v>2.359758946113288e-05</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.717531631584279e-06</v>
+        <v>8.637814062240068e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0001358496228931472</v>
+        <v>8.735865776543505e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>8.32387522677891e-05</v>
+        <v>4.298121893953066e-07</v>
       </c>
       <c r="EZ2" t="n">
-        <v>4.30355103162583e-05</v>
+        <v>1.094231083698105e-05</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.940766666550189e-05</v>
+        <v>3.059845039388165e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>5.324889571056701e-06</v>
+        <v>1.131535009335494e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.891452848212793e-05</v>
+        <v>7.692651706747711e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>6.883415335323662e-05</v>
+        <v>6.444812697736779e-06</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.781878745532595e-05</v>
+        <v>6.072129053791286e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>7.016700237727491e-06</v>
+        <v>5.389414582168683e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0001087108830688521</v>
+        <v>3.612552973208949e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>9.515044803265482e-05</v>
+        <v>2.218149347754661e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.056511064234655e-05</v>
+        <v>1.033765784086427e-05</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.000232166625210084</v>
+        <v>1.382262507831911e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>2.240195681224577e-05</v>
+        <v>1.057952886185376e-05</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.822343958541751e-08</v>
+        <v>9.471958037465811e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.238243723695632e-05</v>
+        <v>3.267565716669196e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>8.582206646678969e-06</v>
+        <v>2.078113175230101e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>3.425740214879625e-05</v>
+        <v>6.601576842513168e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0001069149875547737</v>
+        <v>1.59588689712109e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0002073861251119524</v>
+        <v>3.232730159652419e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.248389137093909e-05</v>
+        <v>1.59874907694757e-05</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001372176193399355</v>
+        <v>1.815901850932278e-05</v>
       </c>
       <c r="FT2" t="n">
-        <v>6.357458187267184e-05</v>
+        <v>1.213963969348697e-05</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.212478309753351e-06</v>
+        <v>1.725684455777809e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0001172024203697219</v>
+        <v>1.182463392979116e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>9.691190643934533e-05</v>
+        <v>1.473891916248249e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>3.23204294545576e-05</v>
+        <v>6.663023668807e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>6.286731513682753e-05</v>
+        <v>1.372602127958089e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>9.209874406224117e-05</v>
+        <v>2.795377440634184e-08</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.982178325008135e-06</v>
+        <v>1.512354174337815e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001101828675018623</v>
+        <v>4.147114395891549e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.815023279050365e-05</v>
+        <v>4.328935028752312e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>2.928975300164893e-05</v>
+        <v>1.313398024649359e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>4.085919044882758e-06</v>
+        <v>2.720293196034618e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>4.113044269615784e-05</v>
+        <v>2.443429548293352e-05</v>
       </c>
       <c r="GG2" t="n">
-        <v>2.719920667004772e-05</v>
+        <v>1.299766427109716e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.920918996096589e-05</v>
+        <v>3.896054145968719e-09</v>
       </c>
       <c r="B3" t="n">
-        <v>1.132001216319622e-05</v>
+        <v>1.459439680218111e-08</v>
       </c>
       <c r="C3" t="n">
-        <v>6.616849077545339e-07</v>
+        <v>1.197475729686204e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.118872205552179e-05</v>
+        <v>1.587112130607693e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>8.869628800312057e-06</v>
+        <v>2.163976997593409e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>7.463018846465275e-06</v>
+        <v>1.791998660571892e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.111395613406785e-05</v>
+        <v>2.059929782305403e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>3.673878381960094e-06</v>
+        <v>4.418005516981793e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>8.391900223614357e-07</v>
+        <v>3.727168573774975e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>2.455606227158569e-05</v>
+        <v>4.693319954895969e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>7.931264917715453e-06</v>
+        <v>1.024577844788155e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>2.945969299616991e-06</v>
+        <v>1.423856449411787e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>6.907479473738931e-06</v>
+        <v>8.607434764940081e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.564960439282004e-05</v>
+        <v>5.024194393854486e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>9.577697710483335e-07</v>
+        <v>9.520033650289861e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.329174301645253e-05</v>
+        <v>5.174692674358994e-09</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.045092060143361e-06</v>
+        <v>6.992153966933756e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>2.850541477528168e-06</v>
+        <v>8.785094873786647e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>1.805424176382076e-06</v>
+        <v>1.924543857612093e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>8.404961704400193e-07</v>
+        <v>4.062191472087306e-09</v>
       </c>
       <c r="U3" t="n">
-        <v>2.265704779347288e-08</v>
+        <v>1.430887852649221e-09</v>
       </c>
       <c r="V3" t="n">
-        <v>1.487779741182749e-06</v>
+        <v>3.17535608918007e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>2.150336968043121e-06</v>
+        <v>6.457308465712686e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>1.368385937894345e-08</v>
+        <v>3.679354154684233e-09</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.02906869869912e-06</v>
+        <v>4.791715468854818e-09</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.601132448238786e-06</v>
+        <v>4.214521787115899e-10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.326732899542549e-06</v>
+        <v>3.047324170779575e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.366950750205433e-06</v>
+        <v>3.880162857683445e-10</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.242299044359243e-06</v>
+        <v>6.763515303376266e-10</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.497519401207683e-06</v>
+        <v>1.051784659367172e-09</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.810582827805774e-06</v>
+        <v>1.289303552809429e-09</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.41541169998527e-06</v>
+        <v>2.187107384088449e-09</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.986179825053114e-07</v>
+        <v>1.853280640062849e-09</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.875478331698105e-07</v>
+        <v>9.810132706178365e-10</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.870049557823222e-06</v>
+        <v>3.408289206419113e-09</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.687688493097085e-06</v>
+        <v>9.747009865890277e-10</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.43388648313703e-06</v>
+        <v>4.237051820510374e-10</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.758704679057701e-06</v>
+        <v>2.996874970406793e-09</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.656533069966827e-06</v>
+        <v>3.503712875385645e-10</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.031757948221639e-06</v>
+        <v>1.977234154182383e-09</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.067957327904878e-06</v>
+        <v>1.506891833535917e-09</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.727211267483654e-06</v>
+        <v>1.312533859376686e-09</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7.093980798345001e-07</v>
+        <v>2.264137544116807e-09</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.052681793429656e-06</v>
+        <v>3.02896130399688e-09</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.114751455588703e-07</v>
+        <v>2.274175514571652e-09</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.438500385120278e-05</v>
+        <v>2.98063973502849e-09</v>
       </c>
       <c r="AU3" t="n">
-        <v>5.820589308314084e-07</v>
+        <v>9.556949898126277e-09</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.970932087009714e-07</v>
+        <v>1.163056539965623e-09</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.415246050688438e-06</v>
+        <v>7.914957578236681e-09</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.581833875112352e-07</v>
+        <v>2.867330595179851e-09</v>
       </c>
       <c r="AY3" t="n">
-        <v>6.050090178177925e-06</v>
+        <v>2.470896820483404e-10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.724599542285432e-06</v>
+        <v>5.264520375192205e-09</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.353273430344416e-06</v>
+        <v>2.499678464218391e-09</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.764712237672938e-06</v>
+        <v>2.809668053771475e-09</v>
       </c>
       <c r="BC3" t="n">
-        <v>7.285229003173299e-06</v>
+        <v>3.546233973139579e-09</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.529814764784533e-06</v>
+        <v>3.515755242489149e-09</v>
       </c>
       <c r="BE3" t="n">
-        <v>3.683070133320143e-07</v>
+        <v>3.603742859681347e-09</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.935317742318148e-07</v>
+        <v>1.946077077263908e-09</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.863330443389714e-06</v>
+        <v>2.787123420944226e-09</v>
       </c>
       <c r="BH3" t="n">
-        <v>5.637289177684579e-07</v>
+        <v>2.875736537788498e-09</v>
       </c>
       <c r="BI3" t="n">
-        <v>7.760761945974082e-06</v>
+        <v>2.340864835304046e-09</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.134541162173264e-05</v>
+        <v>7.611878238833469e-09</v>
       </c>
       <c r="BK3" t="n">
-        <v>7.434997542077326e-07</v>
+        <v>1.265297644437169e-09</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.407143256277777e-06</v>
+        <v>2.966689782724075e-09</v>
       </c>
       <c r="BM3" t="n">
-        <v>7.142463800846599e-06</v>
+        <v>2.059757253647376e-09</v>
       </c>
       <c r="BN3" t="n">
-        <v>5.756038490289939e-07</v>
+        <v>3.11784575934837e-09</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.074886313290335e-06</v>
+        <v>1.291095785838081e-09</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.563853286119411e-06</v>
+        <v>9.533821510032681e-10</v>
       </c>
       <c r="BQ3" t="n">
-        <v>9.950856565410504e-07</v>
+        <v>3.524276426247752e-10</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.81231189344544e-06</v>
+        <v>1.866883092560556e-09</v>
       </c>
       <c r="BS3" t="n">
-        <v>8.252138172792911e-08</v>
+        <v>2.167405144248846e-11</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.37582662521163e-06</v>
+        <v>6.929384288589802e-10</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.09187903944985e-05</v>
+        <v>1.082279266206854e-10</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.125467972291517e-06</v>
+        <v>5.788518553373478e-09</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.841912535383017e-06</v>
+        <v>1.599802401663908e-09</v>
       </c>
       <c r="BX3" t="n">
-        <v>8.719674042367842e-06</v>
+        <v>2.334460402764194e-09</v>
       </c>
       <c r="BY3" t="n">
-        <v>3.97980829802691e-06</v>
+        <v>3.489951660995416e-10</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.625232582431636e-06</v>
+        <v>1.378180902733561e-09</v>
       </c>
       <c r="CA3" t="n">
-        <v>6.83527161982056e-07</v>
+        <v>3.02025315868093e-09</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.951633521457552e-08</v>
+        <v>1.5913035333881e-09</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.343463054581662e-06</v>
+        <v>2.520837760755512e-09</v>
       </c>
       <c r="CD3" t="n">
-        <v>5.295556547935121e-06</v>
+        <v>7.19830084427997e-10</v>
       </c>
       <c r="CE3" t="n">
-        <v>6.518443115055561e-06</v>
+        <v>2.148068611873555e-09</v>
       </c>
       <c r="CF3" t="n">
-        <v>2.926072966147331e-07</v>
+        <v>2.356635331324242e-09</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.913411779241869e-06</v>
+        <v>8.415320107424407e-10</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.863912871158391e-06</v>
+        <v>1.119218717704484e-09</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.618342875848612e-08</v>
+        <v>1.093202861568443e-09</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.865636136244575e-06</v>
+        <v>1.916364289478167e-11</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.83087294658435e-07</v>
+        <v>4.200872982806914e-11</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.013671976579644e-06</v>
+        <v>2.304701762767536e-09</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.114155679715623e-06</v>
+        <v>4.110600748674642e-10</v>
       </c>
       <c r="CN3" t="n">
-        <v>2.4734076760069e-06</v>
+        <v>1.68595704064245e-09</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.847202725002717e-06</v>
+        <v>5.534739333512562e-11</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.596713218532386e-06</v>
+        <v>2.544628285860995e-09</v>
       </c>
       <c r="CQ3" t="n">
-        <v>3.220967528250185e-07</v>
+        <v>8.437889831292011e-10</v>
       </c>
       <c r="CR3" t="n">
-        <v>4.705593141807185e-07</v>
+        <v>3.327563335986383e-09</v>
       </c>
       <c r="CS3" t="n">
-        <v>4.716554826700303e-07</v>
+        <v>4.398926112259005e-09</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.820836577186128e-06</v>
+        <v>4.757644056496702e-09</v>
       </c>
       <c r="CU3" t="n">
-        <v>4.564611515434081e-07</v>
+        <v>1.678045369324366e-09</v>
       </c>
       <c r="CV3" t="n">
-        <v>4.567948053590953e-06</v>
+        <v>8.350635738452183e-10</v>
       </c>
       <c r="CW3" t="n">
-        <v>6.56435531709576e-06</v>
+        <v>1.603851051967808e-09</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.852194600360235e-06</v>
+        <v>1.905470226049033e-09</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.983197080335231e-06</v>
+        <v>2.725110359591554e-09</v>
       </c>
       <c r="CZ3" t="n">
-        <v>7.433636710629798e-07</v>
+        <v>9.753119423194789e-10</v>
       </c>
       <c r="DA3" t="n">
-        <v>6.696172363263031e-07</v>
+        <v>1.526717086086649e-09</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.41861516769859e-06</v>
+        <v>9.006731471750129e-11</v>
       </c>
       <c r="DC3" t="n">
-        <v>3.462741346993425e-07</v>
+        <v>2.694255651913835e-10</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.086109023162862e-06</v>
+        <v>1.556664241952888e-09</v>
       </c>
       <c r="DE3" t="n">
-        <v>3.165954467476695e-06</v>
+        <v>3.870503917369206e-11</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.027073631121311e-05</v>
+        <v>1.422370554671204e-10</v>
       </c>
       <c r="DG3" t="n">
-        <v>3.173532604705542e-06</v>
+        <v>8.476629176357164e-09</v>
       </c>
       <c r="DH3" t="n">
-        <v>6.017365876687109e-07</v>
+        <v>1.621876677404543e-08</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.167061211366672e-06</v>
+        <v>1.301452012825166e-08</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.357453811579035e-06</v>
+        <v>1.581516584359122e-09</v>
       </c>
       <c r="DK3" t="n">
-        <v>3.098628894804278e-06</v>
+        <v>2.804223075969503e-09</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.582173581482493e-06</v>
+        <v>1.018984008283041e-08</v>
       </c>
       <c r="DM3" t="n">
-        <v>1.795658590708626e-07</v>
+        <v>1.102075319892037e-09</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.224950324285601e-06</v>
+        <v>7.151723657727871e-10</v>
       </c>
       <c r="DO3" t="n">
-        <v>4.733571131509962e-06</v>
+        <v>1.340537902905226e-09</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.544726956126397e-06</v>
+        <v>2.52140708312254e-09</v>
       </c>
       <c r="DQ3" t="n">
-        <v>4.418667458594427e-07</v>
+        <v>1.665593218902472e-10</v>
       </c>
       <c r="DR3" t="n">
-        <v>8.015125558813452e-07</v>
+        <v>1.139568217567444e-09</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.049346678883012e-06</v>
+        <v>2.186975933682334e-09</v>
       </c>
       <c r="DT3" t="n">
-        <v>6.143325208540773e-07</v>
+        <v>1.87671944651413e-09</v>
       </c>
       <c r="DU3" t="n">
-        <v>5.657398105540778e-08</v>
+        <v>8.087984726401487e-10</v>
       </c>
       <c r="DV3" t="n">
-        <v>7.016365088929888e-07</v>
+        <v>5.975173245076348e-09</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.601311166472442e-07</v>
+        <v>1.992136233752717e-09</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.644655523909023e-06</v>
+        <v>3.260965719675823e-09</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.18077991323662e-06</v>
+        <v>4.122830965513913e-09</v>
       </c>
       <c r="DZ3" t="n">
-        <v>8.362212611245923e-08</v>
+        <v>1.293362972276668e-09</v>
       </c>
       <c r="EA3" t="n">
-        <v>2.531425252527697e-06</v>
+        <v>1.407493011029715e-09</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.981132072614855e-06</v>
+        <v>4.999319624943155e-09</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.632606199564179e-06</v>
+        <v>1.887662248734046e-09</v>
       </c>
       <c r="ED3" t="n">
-        <v>6.38525489193853e-06</v>
+        <v>1.660100723555047e-09</v>
       </c>
       <c r="EE3" t="n">
-        <v>6.323534194052627e-07</v>
+        <v>5.07263786531098e-10</v>
       </c>
       <c r="EF3" t="n">
-        <v>9.070539817912504e-06</v>
+        <v>6.858028589462606e-10</v>
       </c>
       <c r="EG3" t="n">
-        <v>8.576141226512846e-06</v>
+        <v>4.005134557338863e-10</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.131470639847976e-06</v>
+        <v>3.428149153439364e-10</v>
       </c>
       <c r="EI3" t="n">
-        <v>2.099388211718178e-06</v>
+        <v>1.048233722045211e-09</v>
       </c>
       <c r="EJ3" t="n">
-        <v>2.210600086982595e-06</v>
+        <v>2.111624430867209e-09</v>
       </c>
       <c r="EK3" t="n">
-        <v>3.370854528839118e-08</v>
+        <v>1.807729521630108e-09</v>
       </c>
       <c r="EL3" t="n">
-        <v>4.070370778208598e-07</v>
+        <v>4.161972433358585e-10</v>
       </c>
       <c r="EM3" t="n">
-        <v>4.385947249829769e-06</v>
+        <v>1.518688952373282e-09</v>
       </c>
       <c r="EN3" t="n">
-        <v>1.477463570154214e-06</v>
+        <v>1.02633324061685e-09</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.714135350994184e-06</v>
+        <v>3.728476971609496e-10</v>
       </c>
       <c r="EP3" t="n">
-        <v>4.628768238035263e-06</v>
+        <v>3.21237980660527e-10</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.595504613760568e-06</v>
+        <v>2.977847524121557e-09</v>
       </c>
       <c r="ER3" t="n">
-        <v>2.370617039559875e-06</v>
+        <v>4.357099125940067e-10</v>
       </c>
       <c r="ES3" t="n">
-        <v>2.857791059796e-06</v>
+        <v>2.974014812195946e-09</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.63833146871184e-06</v>
+        <v>6.785720874091794e-10</v>
       </c>
       <c r="EU3" t="n">
-        <v>2.352338469790993e-06</v>
+        <v>1.842989094669178e-10</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.922379169627675e-06</v>
+        <v>5.496783916925096e-09</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.205543071591819e-06</v>
+        <v>1.158752982455269e-09</v>
       </c>
       <c r="EX3" t="n">
-        <v>4.418841854203492e-06</v>
+        <v>7.357136011520993e-10</v>
       </c>
       <c r="EY3" t="n">
-        <v>5.714701273973333e-06</v>
+        <v>1.643030933529133e-09</v>
       </c>
       <c r="EZ3" t="n">
-        <v>1.371108510284103e-06</v>
+        <v>2.060846160389929e-09</v>
       </c>
       <c r="FA3" t="n">
-        <v>1.874048848549137e-06</v>
+        <v>1.898610380024479e-09</v>
       </c>
       <c r="FB3" t="n">
-        <v>2.611179183986678e-07</v>
+        <v>5.288127158387113e-10</v>
       </c>
       <c r="FC3" t="n">
-        <v>6.776564873689495e-07</v>
+        <v>1.581522246496547e-09</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.877995487120643e-06</v>
+        <v>3.499270040396851e-10</v>
       </c>
       <c r="FE3" t="n">
-        <v>4.143628586916748e-07</v>
+        <v>1.055718013009965e-10</v>
       </c>
       <c r="FF3" t="n">
-        <v>3.691783376780222e-07</v>
+        <v>2.091162798478763e-09</v>
       </c>
       <c r="FG3" t="n">
-        <v>5.317211162036983e-06</v>
+        <v>2.409973554051703e-09</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.727113726701646e-06</v>
+        <v>6.34541919009024e-10</v>
       </c>
       <c r="FI3" t="n">
-        <v>2.190009809055482e-06</v>
+        <v>4.284843146962203e-09</v>
       </c>
       <c r="FJ3" t="n">
-        <v>4.034950507048052e-06</v>
+        <v>2.783995034505438e-09</v>
       </c>
       <c r="FK3" t="n">
-        <v>2.178378963435534e-06</v>
+        <v>1.234266688854291e-09</v>
       </c>
       <c r="FL3" t="n">
-        <v>2.420977807560121e-06</v>
+        <v>6.686076692297149e-10</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.318887939305569e-06</v>
+        <v>1.803594051885682e-09</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.578089154463669e-06</v>
+        <v>5.005383663103657e-09</v>
       </c>
       <c r="FO3" t="n">
-        <v>3.652154703104316e-07</v>
+        <v>2.01080152528732e-10</v>
       </c>
       <c r="FP3" t="n">
-        <v>2.629198661452392e-06</v>
+        <v>1.975713592727857e-09</v>
       </c>
       <c r="FQ3" t="n">
-        <v>8.559275556763168e-06</v>
+        <v>1.590939491258325e-09</v>
       </c>
       <c r="FR3" t="n">
-        <v>2.535155090299668e-06</v>
+        <v>2.106686158853677e-09</v>
       </c>
       <c r="FS3" t="n">
-        <v>4.644412001653109e-07</v>
+        <v>2.278943700417813e-10</v>
       </c>
       <c r="FT3" t="n">
-        <v>2.320156227142434e-06</v>
+        <v>1.050838882576954e-08</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.80353333689709e-06</v>
+        <v>1.990124065542886e-09</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.201495138047903e-06</v>
+        <v>1.62555591209923e-09</v>
       </c>
       <c r="FW3" t="n">
-        <v>3.120276460322202e-06</v>
+        <v>9.237753340052279e-10</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.954562094397261e-06</v>
+        <v>4.154659949406891e-10</v>
       </c>
       <c r="FY3" t="n">
-        <v>5.790928298665676e-06</v>
+        <v>3.271381388003647e-09</v>
       </c>
       <c r="FZ3" t="n">
-        <v>3.726678414750495e-07</v>
+        <v>1.400771720838634e-09</v>
       </c>
       <c r="GA3" t="n">
-        <v>3.061650659219595e-06</v>
+        <v>1.354030776390402e-09</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.46102286180394e-06</v>
+        <v>1.119210502054102e-09</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.4017520015841e-06</v>
+        <v>5.036864703100719e-09</v>
       </c>
       <c r="GD3" t="n">
-        <v>3.849619588436326e-06</v>
+        <v>3.861441832953005e-09</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.94190897673252e-06</v>
+        <v>4.683179177789043e-09</v>
       </c>
       <c r="GF3" t="n">
-        <v>1.287440454689204e-06</v>
+        <v>1.513093983440683e-09</v>
       </c>
       <c r="GG3" t="n">
-        <v>5.470429869092186e-07</v>
+        <v>2.827568179597506e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001365202944725752</v>
+        <v>0.0007338452851399779</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004483256780076772</v>
+        <v>0.01048913132399321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002338639460504055</v>
+        <v>0.0005411871825344861</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002559232816565782</v>
+        <v>0.003356848144903779</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005108538898639381</v>
+        <v>0.0005043690907768905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003066527424380183</v>
+        <v>0.006228816695511341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000468322541564703</v>
+        <v>0.0006960373721085489</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000580078864004463</v>
+        <v>0.002518243622034788</v>
       </c>
       <c r="I4" t="n">
-        <v>6.088750524213538e-05</v>
+        <v>0.0006808149628341198</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00124514545314014</v>
+        <v>0.001394853927195072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001048876220011152</v>
+        <v>0.009572334587574005</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002130816457793117</v>
+        <v>0.000130572821944952</v>
       </c>
       <c r="M4" t="n">
-        <v>7.056433241814375e-05</v>
+        <v>0.002936752280220389</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0005092233186587691</v>
+        <v>0.0007181367836892605</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002846931456588209</v>
+        <v>0.005338997580111027</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005907572922296822</v>
+        <v>0.0001215740048792213</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0009584696963429451</v>
+        <v>0.000534411461558193</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0005325754755176604</v>
+        <v>0.0006207319675013423</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003118994063697755</v>
+        <v>2.375629264861345e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0008915556827560067</v>
+        <v>0.0007976730703376234</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0002371556183788925</v>
+        <v>0.0004212465137243271</v>
       </c>
       <c r="V4" t="n">
-        <v>0.000242252615862526</v>
+        <v>0.0009325339924544096</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0005148986238054931</v>
+        <v>0.001295336638577282</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001438342005712911</v>
+        <v>3.433260280871764e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0001740208681439981</v>
+        <v>0.0003942583280149847</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0006123487837612629</v>
+        <v>0.001297747250646353</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.000131673994474113</v>
+        <v>0.0007686633616685867</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.735810630838387e-05</v>
+        <v>4.684377927333117e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0002979642595164478</v>
+        <v>6.994449358899146e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0003659508074633777</v>
+        <v>0.0005090241902507842</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0001723593013593927</v>
+        <v>0.0002160069416277111</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.000290889700409025</v>
+        <v>2.087565371766686e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0004772380343638361</v>
+        <v>0.000509515986777842</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.899590228684247e-05</v>
+        <v>0.0002138765121344477</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0004762187309097499</v>
+        <v>8.322463691001758e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0003728906740434468</v>
+        <v>0.0002598126884549856</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0003429286589380354</v>
+        <v>0.001051180181093514</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0007783842738717794</v>
+        <v>0.0006823823205195367</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0003066783829126507</v>
+        <v>0.0001607257727300748</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0004809874808415771</v>
+        <v>0.0003967210650444031</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.983726002043113e-05</v>
+        <v>3.208529960829765e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0005284066428430378</v>
+        <v>0.001451033516786993</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.950031037267763e-05</v>
+        <v>7.698897388763726e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0002140976721420884</v>
+        <v>0.0008208724902942777</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.606148180144373e-05</v>
+        <v>0.0008966730674728751</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0006949572707526386</v>
+        <v>0.0001985157432500273</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0009877458214759827</v>
+        <v>0.005680604372173548</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001190680544823408</v>
+        <v>0.0005944832228124142</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0001624342112336308</v>
+        <v>0.0006192162982188165</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.615700395836029e-05</v>
+        <v>0.0004672636860050261</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0002062809217022732</v>
+        <v>0.002942148596048355</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001211967464769259</v>
+        <v>0.00127155939117074</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.000322106119710952</v>
+        <v>0.000899986713193357</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0004724070313386619</v>
+        <v>0.001369021949358284</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0002759265480563045</v>
+        <v>0.0004062036750838161</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001456406316719949</v>
+        <v>0.002391849411651492</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0006969338282942772</v>
+        <v>0.002024014247581363</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0002125717583112419</v>
+        <v>0.0001535785122541711</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0002295392769156024</v>
+        <v>0.0008650775998830795</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0002930501941591501</v>
+        <v>0.001388612436130643</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0004999937955290079</v>
+        <v>0.00014170550275594</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0002750920248217881</v>
+        <v>0.0008677627192810178</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0003085058415308595</v>
+        <v>0.0007897790055721998</v>
       </c>
       <c r="BL4" t="n">
-        <v>4.454337977222167e-05</v>
+        <v>0.0004290463984943926</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0004364148189779371</v>
+        <v>0.001581182470545173</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0005129179335199296</v>
+        <v>0.0009819932747632265</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0002164107863791287</v>
+        <v>0.0001067221164703369</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0003462872991804034</v>
+        <v>0.0006758893723599613</v>
       </c>
       <c r="BQ4" t="n">
-        <v>9.862013394013047e-05</v>
+        <v>0.0003003107849508524</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0002853724581655115</v>
+        <v>3.000604920089245e-06</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0005473390920087695</v>
+        <v>0.0004180485266260803</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0002411894383840263</v>
+        <v>0.0001913707092171535</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0006080982275307178</v>
+        <v>0.0003286992141511291</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0003820777928922325</v>
+        <v>0.003749952185899019</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0006588593823835254</v>
+        <v>0.0005208238144405186</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0002999039716087282</v>
+        <v>0.0006045022746548057</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0001448696857551113</v>
+        <v>0.0001275303220609203</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0004845644871238619</v>
+        <v>0.0009015799732878804</v>
       </c>
       <c r="CA4" t="n">
-        <v>9.268284338759258e-05</v>
+        <v>0.0001092350139515474</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.00036396793439053</v>
+        <v>0.0001929778372868896</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0001826423103921115</v>
+        <v>0.0009246154222637415</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0002370541042182595</v>
+        <v>7.072027074173093e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0005005949060432613</v>
+        <v>0.001779189915396273</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0004737511626444757</v>
+        <v>0.0007452475256286561</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.855589627870359e-05</v>
+        <v>0.0004176476795691997</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0001138308289228007</v>
+        <v>0.0005375428590923548</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.856525341281667e-05</v>
+        <v>0.0008704829961061478</v>
       </c>
       <c r="CJ4" t="n">
-        <v>5.245111242402345e-05</v>
+        <v>0.0005817210767418146</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.000341822364134714</v>
+        <v>0.0003779544786084443</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.146822852315381e-05</v>
+        <v>0.000652638147585094</v>
       </c>
       <c r="CM4" t="n">
-        <v>9.198813495459035e-05</v>
+        <v>0.001770539092831314</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0004774072440341115</v>
+        <v>0.0007892001303844154</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0002450916508678347</v>
+        <v>7.104999531293288e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0001066223267116584</v>
+        <v>0.001711860415525734</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001656249660300091</v>
+        <v>0.0006912231910973787</v>
       </c>
       <c r="CR4" t="n">
-        <v>5.286280429572798e-05</v>
+        <v>0.001967445481568575</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0002042150445049629</v>
+        <v>0.001688399934209883</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0003016419941559434</v>
+        <v>0.001671532983891666</v>
       </c>
       <c r="CU4" t="n">
-        <v>8.746873936615884e-05</v>
+        <v>0.0002284733927808702</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0002372811286477372</v>
+        <v>5.095858796266839e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.000526175310369581</v>
+        <v>0.00175011286046356</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0005231979303061962</v>
+        <v>0.0008686938090249896</v>
       </c>
       <c r="CY4" t="n">
-        <v>3.641380681074224e-05</v>
+        <v>0.0008444323902949691</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0003277618670836091</v>
+        <v>0.0004313512763474137</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.383383278152905e-05</v>
+        <v>0.0009925022022798657</v>
       </c>
       <c r="DB4" t="n">
-        <v>3.975594881922007e-05</v>
+        <v>0.0005205720663070679</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0002716784947551787</v>
+        <v>0.000935383839532733</v>
       </c>
       <c r="DD4" t="n">
-        <v>3.889104118570685e-05</v>
+        <v>0.0004381677426863462</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0001570058666402474</v>
+        <v>0.000436769041698426</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0008832120802253485</v>
+        <v>0.002577622886747122</v>
       </c>
       <c r="DG4" t="n">
-        <v>5.008411244489253e-05</v>
+        <v>0.0002645254717208445</v>
       </c>
       <c r="DH4" t="n">
-        <v>8.6199477664195e-05</v>
+        <v>0.002288786927238107</v>
       </c>
       <c r="DI4" t="n">
-        <v>6.88005457050167e-06</v>
+        <v>0.002111626090481877</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3.589171683415771e-06</v>
+        <v>0.0007690577767789364</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0001523946120869368</v>
+        <v>0.0006380504346452653</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0002270937256980687</v>
+        <v>0.001270423759706318</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0001394087448716164</v>
+        <v>0.001490099471993744</v>
       </c>
       <c r="DN4" t="n">
-        <v>8.130382047966123e-05</v>
+        <v>0.0004431871930137277</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.000401068537030369</v>
+        <v>0.0009969430975615978</v>
       </c>
       <c r="DP4" t="n">
-        <v>9.598916949471459e-05</v>
+        <v>0.000612617121078074</v>
       </c>
       <c r="DQ4" t="n">
-        <v>6.109377864049748e-05</v>
+        <v>0.0003241153026465327</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0001809135428629816</v>
+        <v>0.0003796533273998648</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0005439194501377642</v>
+        <v>0.0004875555168837309</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.531523493118584e-05</v>
+        <v>0.0003522367915138602</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0003244196996092796</v>
+        <v>0.0002742399228736758</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0001670812926022336</v>
+        <v>0.0003712562611326575</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0001532543683424592</v>
+        <v>1.201953273266554e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0001201204722747207</v>
+        <v>0.000996829941868782</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0001576198701513931</v>
+        <v>0.0004500251961871982</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0001350825186818838</v>
+        <v>0.0003112179692834616</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0004251440695952624</v>
+        <v>0.0007562802638858557</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0004928423441015184</v>
+        <v>0.0007014321745373309</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0002547222538851202</v>
+        <v>0.0003989287652075291</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0006444610189646482</v>
+        <v>0.0001468806876800954</v>
       </c>
       <c r="EE4" t="n">
-        <v>5.5713808251312e-05</v>
+        <v>0.001315886620432138</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0004460587806534022</v>
+        <v>0.0008704073843546212</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.000443184922914952</v>
+        <v>0.001508332206867635</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0005568458000198007</v>
+        <v>0.001046181074343622</v>
       </c>
       <c r="EI4" t="n">
-        <v>8.300354238599539e-06</v>
+        <v>3.442545130383223e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>9.258601494366303e-06</v>
+        <v>0.0003140458720736206</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0003306153521407396</v>
+        <v>0.0003567980311345309</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0001880019844975322</v>
+        <v>0.0004178680828772485</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0007472993456758559</v>
+        <v>3.282515535829589e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0002970968198496848</v>
+        <v>0.0003301895631011575</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.964627881534398e-05</v>
+        <v>5.417643114924431e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0003244777908548713</v>
+        <v>0.001180062768980861</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.520721707493067e-05</v>
+        <v>0.0004855045990552753</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0002345204702578485</v>
+        <v>0.0007663443684577942</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0002120987774105743</v>
+        <v>0.0009363113786093891</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0005257393349893391</v>
+        <v>0.0004990325542166829</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001092384045477957</v>
+        <v>0.001471899216994643</v>
       </c>
       <c r="EV4" t="n">
-        <v>7.120679219951853e-05</v>
+        <v>0.001865987898781896</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0001841689518187195</v>
+        <v>0.000137924769660458</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0002623284817673266</v>
+        <v>0.0001866891543613747</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0004146803985349834</v>
+        <v>0.001668590703047812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0005056937807239592</v>
+        <v>0.0006168433465063572</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.645625318109524e-05</v>
+        <v>0.0004522317904047668</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0002959733828902245</v>
+        <v>0.0004749832150992006</v>
       </c>
       <c r="FC4" t="n">
-        <v>7.128548168111593e-05</v>
+        <v>0.0008486862643621862</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.009263633022783e-05</v>
+        <v>0.0008481759577989578</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0003972646372858435</v>
+        <v>0.0006768445600755513</v>
       </c>
       <c r="FF4" t="n">
-        <v>6.692696479149163e-05</v>
+        <v>0.00070065853651613</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0004772627726197243</v>
+        <v>0.0005036906804889441</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0003233605821151286</v>
+        <v>0.0002590251096989959</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0003935808490496129</v>
+        <v>0.0003427329356782138</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0006243488751351833</v>
+        <v>0.001109547913074493</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0001439071056665853</v>
+        <v>0.0005982317379675806</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0001627905003260821</v>
+        <v>0.0005044644931331277</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0002939155092462897</v>
+        <v>0.0004032297292724252</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0004064968961756676</v>
+        <v>0.0005622885655611753</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0004535269108600914</v>
+        <v>3.669088619062677e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.000146085920277983</v>
+        <v>0.0007087059784680605</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.001307464204728603</v>
+        <v>0.001065918826498091</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0003880305448547006</v>
+        <v>0.001793490839190781</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0003780883853323758</v>
+        <v>7.691406790399924e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0001459794148104265</v>
+        <v>0.0002515854721423239</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0002234894927823916</v>
+        <v>0.0006155159790068865</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0002556716208346188</v>
+        <v>0.0001975246996153146</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0001476975157856941</v>
+        <v>0.0003428042982704937</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0001680914429016411</v>
+        <v>0.0005381646915338933</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.000548222626093775</v>
+        <v>0.001074974541552365</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0001148549272329547</v>
+        <v>0.0005435377825051546</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.402763155056164e-05</v>
+        <v>0.0007254458614625037</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0001340311428066343</v>
+        <v>3.828576518571936e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0002770875871647149</v>
+        <v>0.00143402605317533</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0005239086458459496</v>
+        <v>0.001018236391246319</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0001959656219696626</v>
+        <v>0.002206650795415044</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001403949572704732</v>
+        <v>0.0005509741022251546</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0002076111995847896</v>
+        <v>0.0005609260988421738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0007746178307570517</v>
+        <v>0.0004114485345780849</v>
       </c>
       <c r="B5" t="n">
-        <v>1.28721003420651e-05</v>
+        <v>0.01918768882751465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005906879669055343</v>
+        <v>0.0006426949403248727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001509666326455772</v>
+        <v>0.006328199524432421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001194507567561232</v>
+        <v>0.006696091964840889</v>
       </c>
       <c r="F5" t="n">
-        <v>3.035930058103986e-05</v>
+        <v>0.01350233890116215</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000260254048043862</v>
+        <v>0.002049752278253436</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001436519960407168</v>
+        <v>0.003461293876171112</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001414354046573862</v>
+        <v>0.0007532858871854842</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006816732347942889</v>
+        <v>0.002138814190402627</v>
       </c>
       <c r="K5" t="n">
-        <v>3.531284528435208e-05</v>
+        <v>0.02012307569384575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006239706417545676</v>
+        <v>0.0005104524898342788</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001114974729716778</v>
+        <v>0.004376341588795185</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0004975168849341571</v>
+        <v>0.003429346717894077</v>
       </c>
       <c r="O5" t="n">
-        <v>1.079837784345727e-05</v>
+        <v>0.01283109560608864</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0003995602601207793</v>
+        <v>0.002030571456998587</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.839189442573115e-05</v>
+        <v>0.001362160197459161</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0002109967899741605</v>
+        <v>9.080028394237161e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>5.556845280807465e-05</v>
+        <v>0.0006193647859618068</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0001932498562382534</v>
+        <v>0.001906975056044757</v>
       </c>
       <c r="U5" t="n">
-        <v>7.005615043453872e-05</v>
+        <v>0.001352664083242416</v>
       </c>
       <c r="V5" t="n">
-        <v>7.735623512417078e-06</v>
+        <v>0.002359450096264482</v>
       </c>
       <c r="W5" t="n">
-        <v>7.648434984730557e-05</v>
+        <v>0.001966845942661166</v>
       </c>
       <c r="X5" t="n">
-        <v>8.889681339496747e-06</v>
+        <v>0.0009972804691642523</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.762618871405721e-05</v>
+        <v>0.0001434200094081461</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0001878765906440094</v>
+        <v>0.001401817658916116</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.204838139936328e-05</v>
+        <v>0.001556666335090995</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.000100002478575334</v>
+        <v>0.001173616154119372</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.004622602835298e-05</v>
+        <v>0.0006113381823524833</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.32940614700783e-05</v>
+        <v>0.00231273309327662</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.573491166112944e-05</v>
+        <v>0.001726792193949223</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.168117422726937e-05</v>
+        <v>3.739079693332314e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0001700749999145046</v>
+        <v>0.001511184498667717</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.702797741629183e-05</v>
+        <v>0.0001071591395884752</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0002129855565726757</v>
+        <v>0.001060290145687759</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.966885070549324e-05</v>
+        <v>0.001434365753084421</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0001350848615402356</v>
+        <v>0.001709864591248333</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0001910793362185359</v>
+        <v>0.002736398717388511</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.693301914609037e-05</v>
+        <v>0.002178139518946409</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0001213199429912493</v>
+        <v>8.816443732939661e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.589387779356912e-05</v>
+        <v>0.0004848113167099655</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0001262832520296797</v>
+        <v>0.001539319171570241</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8.555340173188597e-06</v>
+        <v>0.0004069649439770728</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.019727980950847e-05</v>
+        <v>0.0008780676871538162</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.552660614834167e-05</v>
+        <v>0.001205221749842167</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0003623337252065539</v>
+        <v>0.001701746368780732</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0001364335330436006</v>
+        <v>0.0126097658649087</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0002743448130786419</v>
+        <v>0.003141154767945409</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.992019138531759e-05</v>
+        <v>0.001166163245216012</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.938020745408721e-05</v>
+        <v>0.0009332795161753893</v>
       </c>
       <c r="AY5" t="n">
-        <v>8.951152267400175e-05</v>
+        <v>0.006218630820512772</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6.573657447006553e-05</v>
+        <v>0.001591727486811578</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001179786049760878</v>
+        <v>0.0001610684557817876</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0001118269356084056</v>
+        <v>0.001433810451999307</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0001809998648241162</v>
+        <v>0.0003969703102484345</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.551534246071242e-05</v>
+        <v>0.004141759593039751</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0002457959926687181</v>
+        <v>0.003496028715744615</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.73631521849893e-05</v>
+        <v>0.0004458720504771918</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0001135625061579049</v>
+        <v>0.006381033919751644</v>
       </c>
       <c r="BH5" t="n">
-        <v>5.35138497070875e-06</v>
+        <v>0.006669148802757263</v>
       </c>
       <c r="BI5" t="n">
-        <v>8.786904800217599e-05</v>
+        <v>0.001350391888990998</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0001345922937616706</v>
+        <v>0.000147113692946732</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0001011283238767646</v>
+        <v>0.000508161261677742</v>
       </c>
       <c r="BL5" t="n">
-        <v>3.989577817264944e-05</v>
+        <v>0.002018284052610397</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001279416756005958</v>
+        <v>0.003116320353001356</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0001061104485415854</v>
+        <v>0.0004209760809317231</v>
       </c>
       <c r="BO5" t="n">
-        <v>3.836717587546445e-05</v>
+        <v>0.0003418970154598355</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.000171386927831918</v>
+        <v>0.001766958157531917</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.160206375061534e-05</v>
+        <v>0.001017375150695443</v>
       </c>
       <c r="BR5" t="n">
-        <v>7.60573020670563e-05</v>
+        <v>0.001314668450504541</v>
       </c>
       <c r="BS5" t="n">
-        <v>6.246374687179923e-05</v>
+        <v>0.001104215974919498</v>
       </c>
       <c r="BT5" t="n">
-        <v>6.290541932685301e-05</v>
+        <v>0.0004591938923113048</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0002543592709116638</v>
+        <v>0.0009462784510105848</v>
       </c>
       <c r="BV5" t="n">
-        <v>6.817253597546369e-05</v>
+        <v>0.007058268412947655</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0001018518378259614</v>
+        <v>0.0006365124136209488</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0001544910483062267</v>
+        <v>0.001821896410547197</v>
       </c>
       <c r="BY5" t="n">
-        <v>5.168825373402797e-05</v>
+        <v>4.839603570871986e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0001292536326218396</v>
+        <v>0.001574613736011088</v>
       </c>
       <c r="CA5" t="n">
-        <v>4.551162419375032e-05</v>
+        <v>0.00028381691663526</v>
       </c>
       <c r="CB5" t="n">
-        <v>6.265856791287661e-05</v>
+        <v>0.0001936822081916034</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.549384771555196e-05</v>
+        <v>0.001263176440261304</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0001524986582808197</v>
+        <v>9.472529927734286e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0001605011784704402</v>
+        <v>0.003175440710037947</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001338502625003457</v>
+        <v>0.0005956478416919708</v>
       </c>
       <c r="CG5" t="n">
-        <v>2.959821904369164e-05</v>
+        <v>0.001199859892949462</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.718778680195101e-05</v>
+        <v>4.196968802716583e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.181583866127767e-05</v>
+        <v>0.002385966712608933</v>
       </c>
       <c r="CJ5" t="n">
-        <v>6.975438009249046e-05</v>
+        <v>0.001854262431152165</v>
       </c>
       <c r="CK5" t="n">
-        <v>7.86018863436766e-05</v>
+        <v>0.0003169217961840332</v>
       </c>
       <c r="CL5" t="n">
-        <v>2.728181698330445e-06</v>
+        <v>0.0005193342221900821</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.446723217668477e-05</v>
+        <v>0.004273850936442614</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001853496069088578</v>
+        <v>0.001463396940380335</v>
       </c>
       <c r="CO5" t="n">
-        <v>7.728079799562693e-05</v>
+        <v>4.229496698826551e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.100812343996949e-05</v>
+        <v>0.002532751299440861</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2.083460276480764e-05</v>
+        <v>0.0007174386410042644</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.467319245624822e-05</v>
+        <v>0.0005053250933997333</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.733304088702425e-05</v>
+        <v>0.003608366707339883</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.321489435213152e-06</v>
+        <v>0.003618482267484069</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0001410398108419031</v>
+        <v>0.001014366396702826</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0001349397061858326</v>
+        <v>3.233435563743114e-08</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0001413647260051221</v>
+        <v>0.002860636916011572</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0001459579798392951</v>
+        <v>0.0003988859243690968</v>
       </c>
       <c r="CY5" t="n">
-        <v>3.17139747494366e-05</v>
+        <v>0.001834547845646739</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.636364272097126e-05</v>
+        <v>0.0001943433890119195</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.376800810248824e-06</v>
+        <v>0.002515849890187383</v>
       </c>
       <c r="DB5" t="n">
-        <v>7.010009721852839e-05</v>
+        <v>0.001747817266732454</v>
       </c>
       <c r="DC5" t="n">
-        <v>4.917680053040385e-05</v>
+        <v>0.0005984496674500406</v>
       </c>
       <c r="DD5" t="n">
-        <v>6.945056156837381e-06</v>
+        <v>0.0002049242466455325</v>
       </c>
       <c r="DE5" t="n">
-        <v>8.669864473631606e-05</v>
+        <v>0.001450501382350922</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0002496172382961959</v>
+        <v>0.003934722859412432</v>
       </c>
       <c r="DG5" t="n">
-        <v>2.851195858966094e-05</v>
+        <v>0.000730897590983659</v>
       </c>
       <c r="DH5" t="n">
-        <v>7.051039574434981e-05</v>
+        <v>0.003434503450989723</v>
       </c>
       <c r="DI5" t="n">
-        <v>5.38735548616387e-07</v>
+        <v>0.004628536757081747</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2.175419649574906e-05</v>
+        <v>0.001056207809597254</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0001195863223983906</v>
+        <v>0.001097644097171724</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.336177410848904e-05</v>
+        <v>0.0002393016475252807</v>
       </c>
       <c r="DM5" t="n">
-        <v>9.757755469763651e-05</v>
+        <v>0.002829128876328468</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.87793375516776e-05</v>
+        <v>0.0001324883778579533</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0001913588930619881</v>
+        <v>0.000260135333519429</v>
       </c>
       <c r="DP5" t="n">
-        <v>4.599884050549008e-05</v>
+        <v>0.001782088191248477</v>
       </c>
       <c r="DQ5" t="n">
-        <v>3.182263390044682e-05</v>
+        <v>0.001566696912050247</v>
       </c>
       <c r="DR5" t="n">
-        <v>4.438042651599972e-06</v>
+        <v>0.001332675805315375</v>
       </c>
       <c r="DS5" t="n">
-        <v>6.893872341606766e-05</v>
+        <v>0.002192140556871891</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.355346845841268e-06</v>
+        <v>0.000358184683136642</v>
       </c>
       <c r="DU5" t="n">
-        <v>6.851087164250202e-06</v>
+        <v>0.0004543178365565836</v>
       </c>
       <c r="DV5" t="n">
-        <v>6.403006409527734e-05</v>
+        <v>0.0006591299897991121</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.427993811375927e-05</v>
+        <v>0.001053691026754677</v>
       </c>
       <c r="DX5" t="n">
-        <v>9.367255552206188e-05</v>
+        <v>0.002243972849100828</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.661060534592252e-06</v>
+        <v>0.0004599059466272593</v>
       </c>
       <c r="DZ5" t="n">
-        <v>3.226557964808308e-05</v>
+        <v>0.0007227673777379096</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0001093535465770401</v>
+        <v>0.0012638681801036</v>
       </c>
       <c r="EB5" t="n">
-        <v>5.980990681564435e-05</v>
+        <v>0.001635499531403184</v>
       </c>
       <c r="EC5" t="n">
-        <v>2.741711250564549e-05</v>
+        <v>0.001399305416271091</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0001821435143938288</v>
+        <v>0.001850030617788434</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.037687409028877e-05</v>
+        <v>0.0003608114784583449</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0002489072503522038</v>
+        <v>0.0003142931964248419</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0001862002245616168</v>
+        <v>0.003381718881428242</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0001263024460058659</v>
+        <v>0.000594917219132185</v>
       </c>
       <c r="EI5" t="n">
-        <v>6.636753096245229e-05</v>
+        <v>0.0008626829367130995</v>
       </c>
       <c r="EJ5" t="n">
-        <v>5.110722486278974e-05</v>
+        <v>0.0003580568300094455</v>
       </c>
       <c r="EK5" t="n">
-        <v>1.481244817114202e-05</v>
+        <v>0.002206745557487011</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.958516107464675e-06</v>
+        <v>0.001821309793740511</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0001685395545791835</v>
+        <v>0.0009859494166448712</v>
       </c>
       <c r="EN5" t="n">
-        <v>7.118924258975312e-05</v>
+        <v>0.000575093668885529</v>
       </c>
       <c r="EO5" t="n">
-        <v>3.689259028760716e-05</v>
+        <v>0.0001717116101644933</v>
       </c>
       <c r="EP5" t="n">
-        <v>8.579980203649029e-05</v>
+        <v>0.002496081870049238</v>
       </c>
       <c r="EQ5" t="n">
-        <v>3.182820364600047e-05</v>
+        <v>8.655490819364786e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0001168996896012686</v>
+        <v>3.353646025061607e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>3.694597398862243e-05</v>
+        <v>0.0008528424659743905</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0001635709195397794</v>
+        <v>0.001441182801499963</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0001566745922900736</v>
+        <v>0.001607741927728057</v>
       </c>
       <c r="EV5" t="n">
-        <v>2.717485585890245e-05</v>
+        <v>0.002418855438008904</v>
       </c>
       <c r="EW5" t="n">
-        <v>6.664205284323543e-05</v>
+        <v>0.001508862245827913</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0001251759531442076</v>
+        <v>0.0004395585565362126</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0001368675148114562</v>
+        <v>0.002725999336689711</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0001437238970538601</v>
+        <v>0.0001117818173952401</v>
       </c>
       <c r="FA5" t="n">
-        <v>3.065907731070183e-05</v>
+        <v>0.001185651984997094</v>
       </c>
       <c r="FB5" t="n">
-        <v>3.71604437532369e-06</v>
+        <v>0.0004289619100745767</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.438379058527062e-05</v>
+        <v>0.002598876133561134</v>
       </c>
       <c r="FD5" t="n">
-        <v>6.973328709136695e-05</v>
+        <v>0.001725961570627987</v>
       </c>
       <c r="FE5" t="n">
-        <v>6.675872282357886e-05</v>
+        <v>8.882030670065433e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.053420939773787e-05</v>
+        <v>0.000444556528236717</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0001285953185288236</v>
+        <v>5.856553616467863e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.683454502199311e-05</v>
+        <v>0.001593307591974735</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0001015384768834338</v>
+        <v>0.0008002110989764333</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0001400840701535344</v>
+        <v>0.00349185336381197</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0001193773932754993</v>
+        <v>0.0004460568015929312</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0001610984763829038</v>
+        <v>0.0008070046314969659</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.340912139217835e-07</v>
+        <v>0.0005025360733270645</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0001334596454398707</v>
+        <v>0.0006505365017801523</v>
       </c>
       <c r="FO5" t="n">
-        <v>6.209772254806012e-05</v>
+        <v>0.0008129367488436401</v>
       </c>
       <c r="FP5" t="n">
-        <v>9.958507143892348e-05</v>
+        <v>0.001983694732189178</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0004111366579309106</v>
+        <v>0.003485818626359105</v>
       </c>
       <c r="FR5" t="n">
-        <v>3.576061499188654e-05</v>
+        <v>0.0009641708456911147</v>
       </c>
       <c r="FS5" t="n">
-        <v>5.699467874364927e-05</v>
+        <v>0.001486828085035086</v>
       </c>
       <c r="FT5" t="n">
-        <v>8.96237906999886e-05</v>
+        <v>0.002293313620612025</v>
       </c>
       <c r="FU5" t="n">
-        <v>8.085213630693033e-05</v>
+        <v>0.0007175877690315247</v>
       </c>
       <c r="FV5" t="n">
-        <v>3.329467290313914e-05</v>
+        <v>0.001403732807375491</v>
       </c>
       <c r="FW5" t="n">
-        <v>2.611521995277144e-05</v>
+        <v>0.002778902417048812</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0001091030862880871</v>
+        <v>0.0007985194097273052</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0001484153908677399</v>
+        <v>0.00282271602191031</v>
       </c>
       <c r="FZ5" t="n">
-        <v>5.256424628896639e-05</v>
+        <v>0.0003400736895855516</v>
       </c>
       <c r="GA5" t="n">
-        <v>2.782546835078392e-05</v>
+        <v>3.384120645932853e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.599019924469758e-05</v>
+        <v>5.215647979639471e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>6.587174721062183e-05</v>
+        <v>0.001124921371228993</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0001951790472958237</v>
+        <v>0.0001370998070342466</v>
       </c>
       <c r="GE5" t="n">
-        <v>6.405056774383411e-05</v>
+        <v>0.003596402239054441</v>
       </c>
       <c r="GF5" t="n">
-        <v>8.231282117776573e-05</v>
+        <v>0.001668764394707978</v>
       </c>
       <c r="GG5" t="n">
-        <v>4.062536027049646e-05</v>
+        <v>0.0007535612676292658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.549966489430517e-05</v>
+        <v>1.10719674921711e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>3.362472125445493e-05</v>
+        <v>9.99821349978447e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.259431312268134e-06</v>
+        <v>1.000764950731536e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>3.952308907173574e-05</v>
+        <v>3.274475966463797e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>3.570778062567115e-05</v>
+        <v>2.029370807576925e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>3.636929977801628e-05</v>
+        <v>1.661384158069268e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>2.502772622392513e-05</v>
+        <v>1.077239903679583e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>6.694697731290944e-06</v>
+        <v>8.183774298231583e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>6.449462944146944e-06</v>
+        <v>7.412117156491149e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>8.578562847105786e-05</v>
+        <v>1.906477700686082e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.635228181839921e-05</v>
+        <v>7.729518983978778e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.175951001641806e-05</v>
+        <v>3.729802074303734e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>2.955220588773955e-05</v>
+        <v>3.374601874384098e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>5.685328505933285e-05</v>
+        <v>2.940883132396266e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>9.644875717640389e-06</v>
+        <v>3.418114283704199e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.283374487888068e-05</v>
+        <v>1.477594923926517e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.846084943390451e-06</v>
+        <v>5.800414328405168e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.179449645860586e-05</v>
+        <v>1.09659617919533e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>2.884742343667313e-06</v>
+        <v>4.17471392211155e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>2.923405190813355e-06</v>
+        <v>1.55099987750873e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>8.240322131314315e-07</v>
+        <v>4.984302904631477e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>9.74638169282116e-06</v>
+        <v>5.588941348833032e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>9.778101457413868e-07</v>
+        <v>1.862603539848351e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>5.971336577204056e-06</v>
+        <v>1.550259366922546e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.787330443738028e-06</v>
+        <v>7.853587703721132e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.248288299393607e-05</v>
+        <v>1.367782806482865e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.773019322281471e-06</v>
+        <v>1.199168309540255e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.207782133860746e-05</v>
+        <v>6.963447958696634e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.935056601127144e-06</v>
+        <v>1.084113046090351e-05</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.399999281507917e-06</v>
+        <v>6.376635155902477e-06</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.351247743121348e-06</v>
+        <v>2.138182480848627e-06</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.018048235186143e-07</v>
+        <v>3.813794364759815e-07</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.763417215755908e-07</v>
+        <v>2.837979081959929e-06</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.214534904647735e-06</v>
+        <v>8.314238584716804e-06</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.809138823067769e-05</v>
+        <v>2.687579126359196e-06</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.529569069854915e-06</v>
+        <v>2.03861236514058e-06</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.025718640652485e-05</v>
+        <v>9.283519830205478e-06</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.487092413299251e-05</v>
+        <v>1.117486135626677e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.514324013551231e-06</v>
+        <v>2.565893964856514e-06</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.727162089082412e-05</v>
+        <v>4.878247636952437e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.207877085107611e-05</v>
+        <v>1.118023828894366e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.066777531377738e-05</v>
+        <v>1.251586581929587e-06</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.328380903942161e-06</v>
+        <v>1.952546426764457e-06</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.234465788817033e-06</v>
+        <v>4.895636038781959e-07</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.058565203493345e-06</v>
+        <v>7.105320037226193e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.367716610431671e-05</v>
+        <v>6.678820682282094e-06</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.324316483282018e-06</v>
+        <v>6.320839747786522e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.521360900369473e-06</v>
+        <v>5.461079126689583e-06</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.229771805810742e-05</v>
+        <v>1.280001924897078e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.483000050939154e-05</v>
+        <v>7.26624375602114e-06</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.517276541562751e-05</v>
+        <v>1.079973480955232e-05</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7.192750672402326e-06</v>
+        <v>5.540518486668589e-06</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.171322194044478e-06</v>
+        <v>2.947055236290907e-06</v>
       </c>
       <c r="BB6" t="n">
-        <v>5.625749508908484e-06</v>
+        <v>1.428317682439229e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.321216197742615e-05</v>
+        <v>2.455099547660211e-06</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.995906697833561e-06</v>
+        <v>2.30922505579656e-05</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.30593161379511e-06</v>
+        <v>2.324238630535547e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.273799625778338e-05</v>
+        <v>3.73502462025499e-06</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.930961949867196e-06</v>
+        <v>1.833496207837015e-05</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.86068200491718e-06</v>
+        <v>3.959733476222027e-06</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.345992041024147e-05</v>
+        <v>1.292435081268195e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.7848285753862e-05</v>
+        <v>9.941363714460749e-06</v>
       </c>
       <c r="BK6" t="n">
-        <v>9.826712812355254e-07</v>
+        <v>4.391218681121245e-06</v>
       </c>
       <c r="BL6" t="n">
-        <v>4.964297204423929e-06</v>
+        <v>5.027989118389087e-06</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.579451418365352e-05</v>
+        <v>1.056931250786874e-05</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.000351514652721e-06</v>
+        <v>1.345747114100959e-05</v>
       </c>
       <c r="BO6" t="n">
-        <v>5.187639544601552e-07</v>
+        <v>6.934367775102146e-06</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.091982903744793e-05</v>
+        <v>1.093598439183552e-05</v>
       </c>
       <c r="BQ6" t="n">
-        <v>7.100455832187436e-07</v>
+        <v>2.917414121839101e-06</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.573948452460172e-06</v>
+        <v>4.139566044614185e-06</v>
       </c>
       <c r="BS6" t="n">
-        <v>8.646159130876185e-07</v>
+        <v>3.359929223734071e-06</v>
       </c>
       <c r="BT6" t="n">
-        <v>7.383874617516994e-06</v>
+        <v>6.950347142264945e-06</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.828785702353343e-05</v>
+        <v>2.855632601495017e-07</v>
       </c>
       <c r="BV6" t="n">
-        <v>7.233885753521463e-06</v>
+        <v>3.492786345304921e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>7.326144896069309e-06</v>
+        <v>9.812245480134152e-06</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.362711529713124e-05</v>
+        <v>9.992959348892327e-06</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.370564470766112e-05</v>
+        <v>3.746193215192761e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.480922583141364e-05</v>
+        <v>3.966417352785356e-06</v>
       </c>
       <c r="CA6" t="n">
-        <v>4.164076926826965e-06</v>
+        <v>5.188415343582164e-06</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.204763179885049e-06</v>
+        <v>1.149738295680436e-06</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.513098823124892e-06</v>
+        <v>7.823336090950761e-06</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.003115514526144e-05</v>
+        <v>2.39201256135857e-07</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.778237856342457e-05</v>
+        <v>1.65578840096714e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.190136572404299e-06</v>
+        <v>8.629182957520243e-06</v>
       </c>
       <c r="CG6" t="n">
-        <v>8.655248166178353e-06</v>
+        <v>1.033349917634041e-06</v>
       </c>
       <c r="CH6" t="n">
-        <v>8.360058927792124e-06</v>
+        <v>1.901662471937016e-06</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.632130761208828e-06</v>
+        <v>3.236976453990792e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>3.797335921262857e-06</v>
+        <v>2.711376055231085e-06</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.672934445196006e-06</v>
+        <v>1.506093212810811e-06</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.503919293099898e-06</v>
+        <v>4.95182712256792e-06</v>
       </c>
       <c r="CM6" t="n">
-        <v>7.173664926085621e-06</v>
+        <v>2.568676791270263e-05</v>
       </c>
       <c r="CN6" t="n">
-        <v>8.282813723781146e-06</v>
+        <v>8.595988219894934e-06</v>
       </c>
       <c r="CO6" t="n">
-        <v>7.482034334316268e-07</v>
+        <v>2.049823251581984e-06</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.193017851619516e-05</v>
+        <v>1.967139542102814e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>9.014860552269965e-06</v>
+        <v>1.126308870880166e-05</v>
       </c>
       <c r="CR6" t="n">
-        <v>3.088471203227527e-06</v>
+        <v>9.31814247451257e-06</v>
       </c>
       <c r="CS6" t="n">
-        <v>5.802689884149004e-07</v>
+        <v>1.36003418447217e-05</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.278067404404283e-05</v>
+        <v>1.030594921758166e-05</v>
       </c>
       <c r="CU6" t="n">
-        <v>2.060344286292093e-06</v>
+        <v>3.170745458191959e-06</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.792581679183058e-05</v>
+        <v>2.505621239379252e-07</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.752514981490094e-05</v>
+        <v>1.490524027758511e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>4.899913619738072e-06</v>
+        <v>9.643477824283764e-06</v>
       </c>
       <c r="CY6" t="n">
-        <v>5.841630809300113e-06</v>
+        <v>6.051625859981868e-06</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.958266461268067e-06</v>
+        <v>4.060313131049043e-06</v>
       </c>
       <c r="DA6" t="n">
-        <v>8.497136718688125e-07</v>
+        <v>3.583177203836385e-06</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.01809802497155e-06</v>
+        <v>3.271209834565525e-06</v>
       </c>
       <c r="DC6" t="n">
-        <v>8.720691653252288e-07</v>
+        <v>2.916970515798312e-06</v>
       </c>
       <c r="DD6" t="n">
-        <v>4.062882453581551e-06</v>
+        <v>3.506328312141704e-06</v>
       </c>
       <c r="DE6" t="n">
-        <v>9.082918040803634e-06</v>
+        <v>1.059252372215269e-05</v>
       </c>
       <c r="DF6" t="n">
-        <v>2.720883821893949e-05</v>
+        <v>4.792912022821838e-07</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.365551725029945e-05</v>
+        <v>9.558013971400214e-07</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.514054014885915e-06</v>
+        <v>1.223708386532962e-05</v>
       </c>
       <c r="DI6" t="n">
-        <v>3.627527121352614e-06</v>
+        <v>8.072574928519316e-06</v>
       </c>
       <c r="DJ6" t="n">
-        <v>7.286261279659811e-06</v>
+        <v>1.011935910355533e-05</v>
       </c>
       <c r="DK6" t="n">
-        <v>3.550619567249669e-06</v>
+        <v>2.199529717472615e-06</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.119452917919261e-06</v>
+        <v>4.946849685438792e-07</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.167269056168152e-05</v>
+        <v>7.687888682994526e-06</v>
       </c>
       <c r="DN6" t="n">
-        <v>6.532245038215478e-07</v>
+        <v>2.390193003520835e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.483351661590859e-05</v>
+        <v>7.258478262883727e-08</v>
       </c>
       <c r="DP6" t="n">
-        <v>4.824479674425675e-06</v>
+        <v>1.136346509156283e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.087910550268134e-05</v>
+        <v>1.011397034744732e-05</v>
       </c>
       <c r="DR6" t="n">
-        <v>8.077972779574338e-06</v>
+        <v>6.395396667358e-06</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.484395738771127e-06</v>
+        <v>2.867473540391074e-06</v>
       </c>
       <c r="DT6" t="n">
-        <v>7.7544359555759e-07</v>
+        <v>7.683223884669133e-06</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.703663994907402e-07</v>
+        <v>2.497459945516312e-06</v>
       </c>
       <c r="DV6" t="n">
-        <v>8.501890988554806e-06</v>
+        <v>3.644816843006993e-06</v>
       </c>
       <c r="DW6" t="n">
-        <v>5.196066013013478e-06</v>
+        <v>1.828075937737594e-06</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.074808551493334e-05</v>
+        <v>1.447425711376127e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>7.379461749223992e-06</v>
+        <v>9.876105650619138e-06</v>
       </c>
       <c r="DZ6" t="n">
-        <v>7.183389243436977e-06</v>
+        <v>9.34226363824564e-07</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.284898295736639e-06</v>
+        <v>8.732904461794533e-06</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.566728992154822e-06</v>
+        <v>1.021001025947044e-05</v>
       </c>
       <c r="EC6" t="n">
-        <v>8.26026462164009e-06</v>
+        <v>8.469883141515311e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.967557909665629e-05</v>
+        <v>2.784426897051162e-06</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.399324673911906e-06</v>
+        <v>1.025966184897698e-06</v>
       </c>
       <c r="EF6" t="n">
-        <v>3.381490023457445e-05</v>
+        <v>4.836706011701608e-06</v>
       </c>
       <c r="EG6" t="n">
-        <v>2.667300213943236e-05</v>
+        <v>1.343131771136541e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>2.124771071976284e-06</v>
+        <v>7.492658824048704e-06</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.164691548183328e-05</v>
+        <v>3.358036337886006e-06</v>
       </c>
       <c r="EJ6" t="n">
-        <v>9.800260158954188e-06</v>
+        <v>4.687429282057565e-06</v>
       </c>
       <c r="EK6" t="n">
-        <v>9.15589907890535e-07</v>
+        <v>1.096072537620785e-06</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.767978346833843e-06</v>
+        <v>6.170660526549909e-06</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.310620427830145e-05</v>
+        <v>1.250132754648803e-06</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.287303686898667e-06</v>
+        <v>3.015637503267499e-06</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.088984729198273e-06</v>
+        <v>4.156811428401852e-07</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.503465682617389e-05</v>
+        <v>8.312551472045016e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>3.748761173483217e-06</v>
+        <v>7.751406883471645e-06</v>
       </c>
       <c r="ER6" t="n">
-        <v>4.599382918968331e-06</v>
+        <v>6.719848897773772e-06</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.796002834453247e-05</v>
+        <v>7.553771865786985e-06</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.05990447991644e-05</v>
+        <v>7.723604539933149e-06</v>
       </c>
       <c r="EU6" t="n">
-        <v>6.847185431979597e-07</v>
+        <v>1.426467406417942e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>9.685436452855356e-06</v>
+        <v>1.872669781732839e-05</v>
       </c>
       <c r="EW6" t="n">
-        <v>4.059789262100821e-06</v>
+        <v>3.008016392413992e-06</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.748456998029724e-05</v>
+        <v>2.747706503214431e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.483124196965946e-05</v>
+        <v>1.508567038399633e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.923934400518192e-06</v>
+        <v>6.7890141508542e-06</v>
       </c>
       <c r="FA6" t="n">
-        <v>6.791013674956048e-06</v>
+        <v>3.450335043453379e-06</v>
       </c>
       <c r="FB6" t="n">
-        <v>3.382046088518109e-06</v>
+        <v>1.911760364237125e-06</v>
       </c>
       <c r="FC6" t="n">
-        <v>5.303752914187498e-06</v>
+        <v>3.641751845862018e-06</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.828256131375383e-06</v>
+        <v>5.525836968445219e-06</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.73590467259055e-06</v>
+        <v>5.099884674564237e-07</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.000512952487043e-06</v>
+        <v>5.614325345959514e-06</v>
       </c>
       <c r="FG6" t="n">
-        <v>1.539784352644347e-05</v>
+        <v>2.392366241110722e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.063620172521041e-07</v>
+        <v>2.599818571979995e-06</v>
       </c>
       <c r="FI6" t="n">
-        <v>4.64618779005832e-06</v>
+        <v>1.12987127067754e-05</v>
       </c>
       <c r="FJ6" t="n">
-        <v>6.7386899900157e-06</v>
+        <v>1.070493908628123e-05</v>
       </c>
       <c r="FK6" t="n">
-        <v>4.316561899031512e-06</v>
+        <v>2.98018790090282e-06</v>
       </c>
       <c r="FL6" t="n">
-        <v>3.388001914572669e-06</v>
+        <v>2.086943140966468e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>3.92343554267427e-06</v>
+        <v>3.751349595404463e-07</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.623178377485601e-06</v>
+        <v>9.3407807071344e-06</v>
       </c>
       <c r="FO6" t="n">
-        <v>4.296148290450219e-06</v>
+        <v>1.056011933542322e-05</v>
       </c>
       <c r="FP6" t="n">
-        <v>6.482529443019303e-06</v>
+        <v>9.428879820916336e-06</v>
       </c>
       <c r="FQ6" t="n">
-        <v>2.49879049079027e-05</v>
+        <v>1.367740060231881e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>6.546669737872435e-06</v>
+        <v>1.210317009281425e-06</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.374384555674624e-05</v>
+        <v>2.714552465477027e-06</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.238709041397669e-06</v>
+        <v>7.404445568681695e-06</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.078671721188584e-05</v>
+        <v>1.400892870151438e-06</v>
       </c>
       <c r="FV6" t="n">
-        <v>7.123282557586208e-06</v>
+        <v>1.420858552592108e-05</v>
       </c>
       <c r="FW6" t="n">
-        <v>1.311143296334194e-05</v>
+        <v>4.48874561698176e-06</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.132944180426421e-05</v>
+        <v>2.957987589979894e-06</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.174890439870069e-05</v>
+        <v>1.570873791933991e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>6.054854566173162e-06</v>
+        <v>3.953422947233776e-06</v>
       </c>
       <c r="GA6" t="n">
-        <v>5.232949206401827e-06</v>
+        <v>1.696618028290686e-06</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.116176347044529e-06</v>
+        <v>2.191751718783053e-06</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.683039954514243e-06</v>
+        <v>2.813612809404731e-06</v>
       </c>
       <c r="GD6" t="n">
-        <v>4.876400453213137e-06</v>
+        <v>9.695774679130409e-06</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.058797715813853e-05</v>
+        <v>2.535483145038597e-05</v>
       </c>
       <c r="GF6" t="n">
-        <v>4.917345904686954e-06</v>
+        <v>1.763172463142837e-06</v>
       </c>
       <c r="GG6" t="n">
-        <v>8.785060344962403e-06</v>
+        <v>6.97407642746839e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006855200510472059</v>
+        <v>0.0009701354429125786</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0015410459600389</v>
+        <v>0.009604325518012047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01405695267021656</v>
+        <v>0.001115888240747154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003001023549586535</v>
+        <v>0.003197414567694068</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005642544943839312</v>
+        <v>0.001679485198110342</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002434930065646768</v>
+        <v>0.005688230972737074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00219994131475687</v>
+        <v>0.0003115094441454858</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002342377090826631</v>
+        <v>0.002748507773503661</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002303491113707423</v>
+        <v>0.000777407840359956</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006018621847033501</v>
+        <v>0.001627134624868631</v>
       </c>
       <c r="K7" t="n">
-        <v>3.783949068747461e-06</v>
+        <v>0.009102932177484035</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01320846006274223</v>
+        <v>0.0001956158957909793</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0008457509102299809</v>
+        <v>0.002238622400909662</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001357393572106957</v>
+        <v>0.0001044434611685574</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002545838244259357</v>
+        <v>0.005297801923006773</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001685919240117073</v>
+        <v>6.68403081363067e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005639155395328999</v>
+        <v>0.0006302117835730314</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004143034107983112</v>
+        <v>0.001058178022503853</v>
       </c>
       <c r="S7" t="n">
-        <v>7.558309880550951e-05</v>
+        <v>0.0002687817323021591</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004131988622248173</v>
+        <v>0.0006930741365067661</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0006636435864493251</v>
+        <v>0.0001735817641019821</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001304008066654205</v>
+        <v>0.0009410663042217493</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001629658741876483</v>
+        <v>0.0003598048351705074</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001012560329400003</v>
+        <v>0.0001458681072108448</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001062520663253963</v>
+        <v>0.0004966632695868611</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003230209462344646</v>
+        <v>0.001030102954246104</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0001530121953692287</v>
+        <v>0.0006222024094313383</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0004408526001498103</v>
+        <v>9.690836304798722e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.366400677710772e-05</v>
+        <v>0.0002669008099474013</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001391645753756166</v>
+        <v>0.0001897201291285455</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0002260069595649838</v>
+        <v>0.0005680675385519862</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001576781389303505</v>
+        <v>0.0008335565216839314</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.002197713823989034</v>
+        <v>5.482077540364116e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.001428722403943539</v>
+        <v>0.0002592517994344234</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.002456912770867348</v>
+        <v>1.018539478536695e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.003976057283580303</v>
+        <v>9.722755930852145e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.001709862612187862</v>
+        <v>0.001576589653268456</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.00291486456990242</v>
+        <v>0.0005588599597103894</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.002082199556753039</v>
+        <v>6.156873132567853e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.002378849778324366</v>
+        <v>0.0005653909174725413</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0004814093990717083</v>
+        <v>0.0001342766045127064</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.001299246097914875</v>
+        <v>0.001366726821288466</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.220545477233827e-05</v>
+        <v>0.0004798113368451595</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0001245149032911286</v>
+        <v>0.0005515182856470346</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0001615552318980917</v>
+        <v>0.001139020314440131</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.002831302583217621</v>
+        <v>0.0001718962739687413</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.003028199542313814</v>
+        <v>0.005405779927968979</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.006960147991776466</v>
+        <v>0.001136324601247907</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.002779147820547223</v>
+        <v>0.0002846708230208606</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0004221134295221418</v>
+        <v>0.0005949418991804123</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.002550353761762381</v>
+        <v>0.002769872080534697</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6.185262463986874e-06</v>
+        <v>0.001260015182197094</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.001270576729439199</v>
+        <v>0.001175892073661089</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001846147468313575</v>
+        <v>0.001587255159392953</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.001408673473633826</v>
+        <v>0.0004877161700278521</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.212522617308423e-05</v>
+        <v>0.002133029978722334</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.003552930895239115</v>
+        <v>0.002761630108579993</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.001064690528437495</v>
+        <v>0.000284351030131802</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.004365161061286926</v>
+        <v>0.001098690438084304</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.001676231622695923</v>
+        <v>0.001605529338121414</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.002625644439831376</v>
+        <v>1.52462744154036e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0002661293838173151</v>
+        <v>0.001101946458220482</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.002065773587673903</v>
+        <v>0.0008077926468104124</v>
       </c>
       <c r="BL7" t="n">
-        <v>3.401154026505537e-05</v>
+        <v>0.0006987756351009011</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0004518923524301499</v>
+        <v>0.001478252583183348</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.002743769437074661</v>
+        <v>0.0010954454774037</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0002677713928278536</v>
+        <v>0.0002463160490151495</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.001453163917176425</v>
+        <v>0.000528714619576931</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.000205952106625773</v>
+        <v>0.0002623579348437488</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.002277547027915716</v>
+        <v>0.0004972167080268264</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.003220835002139211</v>
+        <v>0.0004996452480554581</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0008315616869367659</v>
+        <v>0.0005605184705927968</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.002327249152585864</v>
+        <v>0.0001836537558119744</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0002670318353921175</v>
+        <v>0.003038821974769235</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.00366565166041255</v>
+        <v>0.0008422142127528787</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0008137169061228633</v>
+        <v>2.126599429175258e-05</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0003105474752373993</v>
+        <v>0.0002792668237816542</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.001765612279996276</v>
+        <v>0.0009723622351884842</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.001160140731371939</v>
+        <v>0.0003059084992855787</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0004645557492040098</v>
+        <v>0.0005816867342218757</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0001754779805196449</v>
+        <v>0.000608172093052417</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.001312158768996596</v>
+        <v>0.0002458007365930825</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.001552555710077286</v>
+        <v>0.001758288708515465</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.002899436745792627</v>
+        <v>0.0006692152237519622</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0006263310206122696</v>
+        <v>0.0004222806601319462</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0007413734565488994</v>
+        <v>0.0004380503669381142</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.001052547944709659</v>
+        <v>0.0005271192057989538</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0004685478925239295</v>
+        <v>0.0005502881249412894</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.001112373080104589</v>
+        <v>0.0005283187492750585</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0002833316684700549</v>
+        <v>0.0006280138622969389</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0001897982438094914</v>
+        <v>0.00192407111171633</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.002894269302487373</v>
+        <v>0.0007219365215860307</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0001031320134643465</v>
+        <v>0.0001513695606263354</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0005546428728848696</v>
+        <v>0.002327614696696401</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001768734306097031</v>
+        <v>0.0009185540839098394</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0002012465265579522</v>
+        <v>0.002380330814048648</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.001771182636730373</v>
+        <v>0.001822997815907001</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.001179511076770723</v>
+        <v>0.001214488060213625</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.001634337939321995</v>
+        <v>0.0005251644179224968</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001239642850123346</v>
+        <v>0.0002105346939060837</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.00174988666549325</v>
+        <v>0.001679147011600435</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.003138256259262562</v>
+        <v>0.0008006749558262527</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0001467758702347055</v>
+        <v>0.0008245763019658625</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001730884192511439</v>
+        <v>0.0003101426700595766</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001099633984267712</v>
+        <v>0.0005160181317478418</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.461215965216979e-05</v>
+        <v>0.0004778391448780894</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0006665411638095975</v>
+        <v>0.001026306068524718</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0002250421530334279</v>
+        <v>0.0005845666746608913</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0004133291949983686</v>
+        <v>0.001068409532308578</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.002501944778487086</v>
+        <v>0.0007298764539882541</v>
       </c>
       <c r="DG7" t="n">
-        <v>5.632120883092284e-05</v>
+        <v>3.074798587476835e-05</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.001936323009431362</v>
+        <v>0.001832218375056982</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.001938772853463888</v>
+        <v>0.002144624479115009</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.001139644300565124</v>
+        <v>0.001314613269641995</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.000750225386582315</v>
+        <v>0.00151070870924741</v>
       </c>
       <c r="DL7" t="n">
-        <v>4.667654866352677e-05</v>
+        <v>0.001732890610583127</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.000561430468223989</v>
+        <v>0.002124774502590299</v>
       </c>
       <c r="DN7" t="n">
-        <v>2.756508183665574e-05</v>
+        <v>0.0005239585880190134</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.001806784071959555</v>
+        <v>0.0008141485159285367</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0009409626945853233</v>
+        <v>0.0005928601021878421</v>
       </c>
       <c r="DQ7" t="n">
-        <v>2.659097663126886e-05</v>
+        <v>0.001083167036995292</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0002530793135520071</v>
+        <v>0.0004432066925801337</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.001963229384273291</v>
+        <v>0.0009893388487398624</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.0006917509017512202</v>
+        <v>0.0005398141220211983</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.304335455643013e-05</v>
+        <v>0.0005149461212567985</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001699348795227706</v>
+        <v>0.0001568575098644942</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0009345745202153921</v>
+        <v>0.0001057341578416526</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.001085408497601748</v>
+        <v>0.0005907014710828662</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0003308596787974238</v>
+        <v>0.0007667795289307833</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0002503842697478831</v>
+        <v>0.0007384615018963814</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0009753319900482893</v>
+        <v>0.0007199648534879088</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.001706848037429154</v>
+        <v>0.0002655332791619003</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.001554715679958463</v>
+        <v>0.0004966269480064511</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.001199839171022177</v>
+        <v>0.0003736013313755393</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0007446692907251418</v>
+        <v>0.001574760070070624</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.002358710858970881</v>
+        <v>0.001184914726763964</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.001327602658420801</v>
+        <v>0.002043906366452575</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.003024111734703183</v>
+        <v>0.001066419878043234</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0004584217385854572</v>
+        <v>0.0002514073858037591</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0008935994119383395</v>
+        <v>0.0006362129934132099</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.002961264457553625</v>
+        <v>7.352387183345854e-05</v>
       </c>
       <c r="EL7" t="n">
-        <v>3.867399937007576e-05</v>
+        <v>0.0006580034387297928</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.002444410463795066</v>
+        <v>4.489329512580298e-05</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.001600403804332018</v>
+        <v>0.0002251179685117677</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0001504010579083115</v>
+        <v>0.000324848952004686</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.00125215807929635</v>
+        <v>0.0009418361587449908</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.000726598605979234</v>
+        <v>0.0006682297680526972</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0004142438992857933</v>
+        <v>0.001064617186784744</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0002886201255023479</v>
+        <v>0.001056577428244054</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.001391842844896019</v>
+        <v>0.0007271213689818978</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0008515717927366495</v>
+        <v>0.001503873849287629</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0001170642208307981</v>
+        <v>0.002222892362624407</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.001731921336613595</v>
+        <v>0.0003769594477489591</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.001571246772073209</v>
+        <v>0.0004046461835969239</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.001187385176308453</v>
+        <v>0.001574873691424727</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.003037489950656891</v>
+        <v>0.0006044370238669217</v>
       </c>
       <c r="FA7" t="n">
-        <v>8.790724677965045e-05</v>
+        <v>0.0002753266890067607</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001468153903260827</v>
+        <v>0.0003247728454880416</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0004102251841686666</v>
+        <v>0.0003674113540910184</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0002113976224791259</v>
+        <v>0.0008127043838612735</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001201625447720289</v>
+        <v>0.0008382769883610308</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0002967721375171095</v>
+        <v>0.0008035777718760073</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0004414126160554588</v>
+        <v>0.0004367440124042332</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0004359568411018699</v>
+        <v>0.0003092852130066603</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.002337826183065772</v>
+        <v>0.001090705743990839</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001588770188391209</v>
+        <v>0.001526233972981572</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.001084815012291074</v>
+        <v>0.0005751614226028323</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.00125062232837081</v>
+        <v>0.000941618112847209</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0007416672306135297</v>
+        <v>0.0004587679286487401</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0007743978057987988</v>
+        <v>0.0005673391278833151</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001403292058967054</v>
+        <v>0.0004767547070514411</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.00264663202688098</v>
+        <v>0.001324725337326527</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.005840388592332602</v>
+        <v>0.0007145166746340692</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.003126857802271843</v>
+        <v>0.001399344066157937</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001813637092709541</v>
+        <v>9.266204142477363e-05</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0001463518128730357</v>
+        <v>8.615216938778758e-05</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.001893477630801499</v>
+        <v>0.0009686099947430193</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0003972412960138172</v>
+        <v>0.0002304718655068427</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0004288601339794695</v>
+        <v>0.0006086883367970586</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0006400115671567619</v>
+        <v>0.0002546547038946301</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.001978513319045305</v>
+        <v>0.001562372781336308</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0008480732794851065</v>
+        <v>0.0005209972732700408</v>
       </c>
       <c r="GA7" t="n">
-        <v>2.277066596434452e-05</v>
+        <v>0.0007191795157268643</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.001442000037059188</v>
+        <v>0.0003463973989710212</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.001319876522757113</v>
+        <v>0.0003893329994753003</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.002303787507116795</v>
+        <v>0.001026365207508206</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0005719969049096107</v>
+        <v>0.001786727458238602</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0001500130747444928</v>
+        <v>0.0004647508321795613</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0003658942296169698</v>
+        <v>0.0008167214691638947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0001681533321971074</v>
+        <v>0.0001494737662142143</v>
       </c>
       <c r="B8" t="n">
-        <v>1.602592419658322e-05</v>
+        <v>0.002446293365210295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001256690302398056</v>
+        <v>3.974093851866201e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>6.584928632946685e-05</v>
+        <v>0.0009787733433768153</v>
       </c>
       <c r="E8" t="n">
-        <v>2.035798024735413e-05</v>
+        <v>0.001081348513253033</v>
       </c>
       <c r="F8" t="n">
-        <v>4.382308361527976e-06</v>
+        <v>0.001439049956388772</v>
       </c>
       <c r="G8" t="n">
-        <v>5.030501779401675e-05</v>
+        <v>0.0001246899773832411</v>
       </c>
       <c r="H8" t="n">
-        <v>2.295407648489345e-05</v>
+        <v>0.0003734492347575724</v>
       </c>
       <c r="I8" t="n">
-        <v>2.713565118028782e-05</v>
+        <v>0.0006131588015705347</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001532030000817031</v>
+        <v>0.0002148223866242915</v>
       </c>
       <c r="K8" t="n">
-        <v>1.856828384916298e-05</v>
+        <v>0.002655150601640344</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001382033224217594</v>
+        <v>0.0001485563989263028</v>
       </c>
       <c r="M8" t="n">
-        <v>4.447499668458477e-05</v>
+        <v>0.0003850022039841861</v>
       </c>
       <c r="N8" t="n">
-        <v>8.598796557635069e-05</v>
+        <v>0.0004310965887270868</v>
       </c>
       <c r="O8" t="n">
-        <v>2.357841822231421e-06</v>
+        <v>0.001176768564619124</v>
       </c>
       <c r="P8" t="n">
-        <v>6.293163460213691e-05</v>
+        <v>2.122462319675833e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.256319905631244e-05</v>
+        <v>3.053680484299548e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>5.341118958313018e-05</v>
+        <v>0.0004525922704488039</v>
       </c>
       <c r="S8" t="n">
-        <v>4.093230018042959e-06</v>
+        <v>3.715787170222029e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>3.88732114515733e-05</v>
+        <v>0.0003246035485062748</v>
       </c>
       <c r="U8" t="n">
-        <v>1.007619357551448e-05</v>
+        <v>0.0002534579252824187</v>
       </c>
       <c r="V8" t="n">
-        <v>1.141934603765549e-06</v>
+        <v>0.000207658318686299</v>
       </c>
       <c r="W8" t="n">
-        <v>1.142656037700363e-05</v>
+        <v>0.0001211023045470938</v>
       </c>
       <c r="X8" t="n">
-        <v>6.688082976324949e-06</v>
+        <v>3.57916796929203e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.165143996535335e-06</v>
+        <v>0.0001132151955971494</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.203338903607801e-05</v>
+        <v>6.309822492767125e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.456151484395377e-06</v>
+        <v>0.0002684836217667907</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.779577178240288e-05</v>
+        <v>7.009759428910911e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.870235094742384e-06</v>
+        <v>0.0001206518281833269</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.932335160556249e-06</v>
+        <v>0.0005275656003504992</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.047378625837155e-06</v>
+        <v>0.0001153243792941794</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.959474027709803e-07</v>
+        <v>0.0001305964105995372</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.232403469155543e-05</v>
+        <v>0.0002377025230089203</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.713724709086819e-06</v>
+        <v>0.0002414309710729867</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.498678754316643e-05</v>
+        <v>9.914986731018871e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.829456025210675e-05</v>
+        <v>0.0001180021281470545</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.173790901200846e-05</v>
+        <v>0.0003281502577010542</v>
       </c>
       <c r="AL8" t="n">
-        <v>4.279663698980585e-05</v>
+        <v>0.000439020135672763</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.059739770425949e-05</v>
+        <v>0.0003340755065437406</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.081354225287214e-05</v>
+        <v>6.989996472839266e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.174821591121145e-05</v>
+        <v>3.390986239537597e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.989003430935554e-05</v>
+        <v>0.0002010009920923039</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9.6169492280751e-07</v>
+        <v>0.0001144615889643319</v>
       </c>
       <c r="AR8" t="n">
-        <v>9.490962611380382e-07</v>
+        <v>2.353205127292313e-05</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.043881638906896e-07</v>
+        <v>5.421188689069822e-05</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.77613022364676e-05</v>
+        <v>0.0001583002303959802</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.537728323659394e-05</v>
+        <v>0.001688916934654117</v>
       </c>
       <c r="AV8" t="n">
-        <v>6.259780639084056e-05</v>
+        <v>0.0005525825545191765</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.394824332441203e-05</v>
+        <v>0.0002853049954865128</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.88559788512066e-05</v>
+        <v>8.787104889051989e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.884922105295118e-05</v>
+        <v>0.0005673845880664885</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.789844868151704e-06</v>
+        <v>0.0001912144216476008</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.380402954964666e-05</v>
+        <v>2.557666812208481e-05</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.101344216498546e-05</v>
+        <v>0.0001512092421762645</v>
       </c>
       <c r="BC8" t="n">
-        <v>4.173060369794257e-05</v>
+        <v>5.414271436166018e-05</v>
       </c>
       <c r="BD8" t="n">
-        <v>3.904840923496522e-06</v>
+        <v>0.0004757323185913265</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.750412335852161e-05</v>
+        <v>0.0003949769306927919</v>
       </c>
       <c r="BF8" t="n">
-        <v>6.886252776894253e-06</v>
+        <v>2.451834006933495e-07</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.265825085283723e-05</v>
+        <v>0.0008698946330696344</v>
       </c>
       <c r="BH8" t="n">
-        <v>5.598916686722077e-06</v>
+        <v>0.0006676186458207667</v>
       </c>
       <c r="BI8" t="n">
-        <v>3.043950891878922e-05</v>
+        <v>0.0002292600111104548</v>
       </c>
       <c r="BJ8" t="n">
-        <v>3.161978020216338e-05</v>
+        <v>5.215279452386312e-05</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.06076365429908e-05</v>
+        <v>8.275978325400501e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.182956930279033e-05</v>
+        <v>0.0003853965317830443</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.254722130601294e-05</v>
+        <v>0.0003390906204003841</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.223211413365789e-05</v>
+        <v>8.517234527971596e-05</v>
       </c>
       <c r="BO8" t="n">
-        <v>7.650845873286016e-06</v>
+        <v>0.0001620765106054023</v>
       </c>
       <c r="BP8" t="n">
-        <v>4.201060073683038e-05</v>
+        <v>0.0002977030526380986</v>
       </c>
       <c r="BQ8" t="n">
-        <v>8.99509723240044e-06</v>
+        <v>4.237347820890136e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>7.928055310912896e-06</v>
+        <v>0.0001389801473123953</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.175494890048867e-05</v>
+        <v>9.943246550392359e-05</v>
       </c>
       <c r="BT8" t="n">
-        <v>9.15110285859555e-06</v>
+        <v>6.665760156465694e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>5.603128374787048e-05</v>
+        <v>0.0001127606374211609</v>
       </c>
       <c r="BV8" t="n">
-        <v>1.432945009582909e-05</v>
+        <v>0.001045890268869698</v>
       </c>
       <c r="BW8" t="n">
-        <v>2.636478347994853e-05</v>
+        <v>0.0002199150912929326</v>
       </c>
       <c r="BX8" t="n">
-        <v>4.538760549621657e-05</v>
+        <v>0.0002228718367405236</v>
       </c>
       <c r="BY8" t="n">
-        <v>1.4978951185185e-05</v>
+        <v>8.133165829349309e-05</v>
       </c>
       <c r="BZ8" t="n">
-        <v>2.756894900812767e-05</v>
+        <v>6.866040348540992e-05</v>
       </c>
       <c r="CA8" t="n">
-        <v>1.167335540230852e-06</v>
+        <v>2.115713141392916e-05</v>
       </c>
       <c r="CB8" t="n">
-        <v>1.446571877750102e-05</v>
+        <v>1.096292362490203e-05</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.824443643272389e-06</v>
+        <v>2.471090556355193e-05</v>
       </c>
       <c r="CD8" t="n">
-        <v>3.336198642500676e-05</v>
+        <v>5.353349115466699e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>3.610236672102474e-05</v>
+        <v>0.0004220972768962383</v>
       </c>
       <c r="CF8" t="n">
-        <v>2.84336565528065e-05</v>
+        <v>9.319908713223413e-06</v>
       </c>
       <c r="CG8" t="n">
-        <v>1.320909359492362e-05</v>
+        <v>9.703930845716968e-05</v>
       </c>
       <c r="CH8" t="n">
-        <v>9.765178219822701e-06</v>
+        <v>4.694989183917642e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>4.785242254001787e-06</v>
+        <v>0.0003036055713891983</v>
       </c>
       <c r="CJ8" t="n">
-        <v>9.673160093370825e-06</v>
+        <v>0.0001695976970950142</v>
       </c>
       <c r="CK8" t="n">
-        <v>1.041624364006566e-05</v>
+        <v>2.106471220031381e-05</v>
       </c>
       <c r="CL8" t="n">
-        <v>2.058740847132867e-06</v>
+        <v>0.0001017246977426112</v>
       </c>
       <c r="CM8" t="n">
-        <v>1.767358298820909e-06</v>
+        <v>0.0005903225392103195</v>
       </c>
       <c r="CN8" t="n">
-        <v>3.827519685728475e-05</v>
+        <v>0.0002963909937534481</v>
       </c>
       <c r="CO8" t="n">
-        <v>1.722556589811575e-05</v>
+        <v>9.378703543916345e-05</v>
       </c>
       <c r="CP8" t="n">
-        <v>1.325082848779857e-06</v>
+        <v>0.0003488504735287279</v>
       </c>
       <c r="CQ8" t="n">
-        <v>6.172087523736991e-06</v>
+        <v>0.0003208591369912028</v>
       </c>
       <c r="CR8" t="n">
-        <v>6.415274128812598e-06</v>
+        <v>0.0001738461432978511</v>
       </c>
       <c r="CS8" t="n">
-        <v>4.60161390947178e-06</v>
+        <v>0.0005934673827141523</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.661340320424642e-05</v>
+        <v>0.000351415976183489</v>
       </c>
       <c r="CU8" t="n">
-        <v>1.948592398548499e-05</v>
+        <v>0.0001103842805605382</v>
       </c>
       <c r="CV8" t="n">
-        <v>2.802924791467376e-05</v>
+        <v>1.178776528831804e-06</v>
       </c>
       <c r="CW8" t="n">
-        <v>3.253266550018452e-05</v>
+        <v>0.0003914552507922053</v>
       </c>
       <c r="CX8" t="n">
-        <v>3.041535637748893e-05</v>
+        <v>3.388590266695246e-05</v>
       </c>
       <c r="CY8" t="n">
-        <v>1.105879346141592e-05</v>
+        <v>0.0001864323858171701</v>
       </c>
       <c r="CZ8" t="n">
-        <v>8.360939318663441e-06</v>
+        <v>0.0001000271295197308</v>
       </c>
       <c r="DA8" t="n">
-        <v>2.852783381968038e-06</v>
+        <v>0.0003284465637989342</v>
       </c>
       <c r="DB8" t="n">
-        <v>8.692589290149044e-06</v>
+        <v>0.0001901722134789452</v>
       </c>
       <c r="DC8" t="n">
-        <v>5.226700068305945e-06</v>
+        <v>0.0001229946501553059</v>
       </c>
       <c r="DD8" t="n">
-        <v>2.187198560932302e-06</v>
+        <v>6.418267003027722e-05</v>
       </c>
       <c r="DE8" t="n">
-        <v>4.931363264404354e-07</v>
+        <v>0.0003013129171449691</v>
       </c>
       <c r="DF8" t="n">
-        <v>6.050198498996906e-05</v>
+        <v>0.0003479568404145539</v>
       </c>
       <c r="DG8" t="n">
-        <v>2.587183189461939e-06</v>
+        <v>4.165958671364933e-05</v>
       </c>
       <c r="DH8" t="n">
-        <v>9.53644575929502e-06</v>
+        <v>0.0007221517735160887</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.568886727909558e-05</v>
+        <v>0.0006257729837670922</v>
       </c>
       <c r="DJ8" t="n">
-        <v>9.132594641414471e-06</v>
+        <v>0.0003586115490179509</v>
       </c>
       <c r="DK8" t="n">
-        <v>2.447526276228018e-05</v>
+        <v>8.872708713170141e-05</v>
       </c>
       <c r="DL8" t="n">
-        <v>6.882579327793792e-06</v>
+        <v>0.0002660131722223014</v>
       </c>
       <c r="DM8" t="n">
-        <v>1.948743920365814e-05</v>
+        <v>0.0003036274865735322</v>
       </c>
       <c r="DN8" t="n">
-        <v>5.909962055739015e-06</v>
+        <v>6.213942833710462e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>4.306137270759791e-05</v>
+        <v>6.732667679898441e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>1.049245292961132e-05</v>
+        <v>0.0001528332650195807</v>
       </c>
       <c r="DQ8" t="n">
-        <v>4.208470272715203e-06</v>
+        <v>0.000139095529448241</v>
       </c>
       <c r="DR8" t="n">
-        <v>4.190415893390309e-06</v>
+        <v>0.0001843343779910356</v>
       </c>
       <c r="DS8" t="n">
-        <v>1.020866875478532e-05</v>
+        <v>0.0001357072760583833</v>
       </c>
       <c r="DT8" t="n">
-        <v>2.830011453625048e-06</v>
+        <v>0.0001214835501741618</v>
       </c>
       <c r="DU8" t="n">
-        <v>2.173769189539598e-06</v>
+        <v>8.568483463022858e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>1.09547481770278e-05</v>
+        <v>9.519719606032595e-05</v>
       </c>
       <c r="DW8" t="n">
-        <v>5.838851393491495e-06</v>
+        <v>3.095097781624645e-05</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.263466765522026e-05</v>
+        <v>0.0002472720225341618</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.287641907765646e-06</v>
+        <v>5.578604032052681e-05</v>
       </c>
       <c r="DZ8" t="n">
-        <v>4.747283128381241e-06</v>
+        <v>4.835945583181456e-05</v>
       </c>
       <c r="EA8" t="n">
-        <v>1.778105433913879e-05</v>
+        <v>6.448875501519069e-05</v>
       </c>
       <c r="EB8" t="n">
-        <v>1.302450800721999e-05</v>
+        <v>0.0002802668313961476</v>
       </c>
       <c r="EC8" t="n">
-        <v>7.392507995973574e-06</v>
+        <v>0.0001382373739033937</v>
       </c>
       <c r="ED8" t="n">
-        <v>4.124261977267452e-05</v>
+        <v>0.0002433759364066646</v>
       </c>
       <c r="EE8" t="n">
-        <v>4.627918769983808e-06</v>
+        <v>0.0003781747946050018</v>
       </c>
       <c r="EF8" t="n">
-        <v>5.359449642128311e-05</v>
+        <v>0.0002091274654958397</v>
       </c>
       <c r="EG8" t="n">
-        <v>3.820942220045254e-05</v>
+        <v>0.0005201702588237822</v>
       </c>
       <c r="EH8" t="n">
-        <v>3.070467573706992e-05</v>
+        <v>4.249293488101102e-05</v>
       </c>
       <c r="EI8" t="n">
-        <v>1.74165288626682e-05</v>
+        <v>0.0001093792961910367</v>
       </c>
       <c r="EJ8" t="n">
-        <v>1.124214213632513e-05</v>
+        <v>0.0001641763665247709</v>
       </c>
       <c r="EK8" t="n">
-        <v>1.541963501949795e-05</v>
+        <v>0.0002633625408634543</v>
       </c>
       <c r="EL8" t="n">
-        <v>4.943520252709277e-06</v>
+        <v>5.937724927207455e-05</v>
       </c>
       <c r="EM8" t="n">
-        <v>3.222580926376395e-05</v>
+        <v>0.0001964963594218716</v>
       </c>
       <c r="EN8" t="n">
-        <v>1.218145007442217e-05</v>
+        <v>0.0001451767020625994</v>
       </c>
       <c r="EO8" t="n">
-        <v>6.106247383286245e-06</v>
+        <v>9.043469617608935e-06</v>
       </c>
       <c r="EP8" t="n">
-        <v>2.398928154434543e-05</v>
+        <v>0.0003915673296432942</v>
       </c>
       <c r="EQ8" t="n">
-        <v>2.750175553956069e-06</v>
+        <v>0.0001283820456592366</v>
       </c>
       <c r="ER8" t="n">
-        <v>1.564141348353587e-05</v>
+        <v>3.239944635424763e-05</v>
       </c>
       <c r="ES8" t="n">
-        <v>4.753258508571889e-06</v>
+        <v>7.610389729961753e-05</v>
       </c>
       <c r="ET8" t="n">
-        <v>3.364256554050371e-05</v>
+        <v>0.0002060653787339106</v>
       </c>
       <c r="EU8" t="n">
-        <v>1.890031489892863e-05</v>
+        <v>0.0002340237842872739</v>
       </c>
       <c r="EV8" t="n">
-        <v>1.859292069639196e-06</v>
+        <v>0.0004668625770136714</v>
       </c>
       <c r="EW8" t="n">
-        <v>1.486113524151733e-05</v>
+        <v>0.0001649961050134152</v>
       </c>
       <c r="EX8" t="n">
-        <v>2.757677611953113e-05</v>
+        <v>6.639016646659002e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>2.918189966294449e-05</v>
+        <v>0.0003905025369022042</v>
       </c>
       <c r="EZ8" t="n">
-        <v>3.027875936822966e-05</v>
+        <v>9.791081538423896e-05</v>
       </c>
       <c r="FA8" t="n">
-        <v>1.24099988170201e-05</v>
+        <v>8.59081483213231e-05</v>
       </c>
       <c r="FB8" t="n">
-        <v>2.079755859085708e-06</v>
+        <v>0.0001474047021474689</v>
       </c>
       <c r="FC8" t="n">
-        <v>2.350019713048823e-06</v>
+        <v>0.0003163318615406752</v>
       </c>
       <c r="FD8" t="n">
-        <v>8.441450518148486e-06</v>
+        <v>0.0001609021710464731</v>
       </c>
       <c r="FE8" t="n">
-        <v>9.582642633176874e-06</v>
+        <v>5.027140650781803e-05</v>
       </c>
       <c r="FF8" t="n">
-        <v>5.813833922729827e-06</v>
+        <v>0.0001055804023053497</v>
       </c>
       <c r="FG8" t="n">
-        <v>2.78866064036265e-05</v>
+        <v>6.168817344587296e-05</v>
       </c>
       <c r="FH8" t="n">
-        <v>4.627533144230256e-06</v>
+        <v>0.0001469530543545261</v>
       </c>
       <c r="FI8" t="n">
-        <v>2.274673533975147e-05</v>
+        <v>7.214845390990376e-05</v>
       </c>
       <c r="FJ8" t="n">
-        <v>3.490536619210616e-05</v>
+        <v>0.0004322546301409602</v>
       </c>
       <c r="FK8" t="n">
-        <v>9.751886864250991e-06</v>
+        <v>0.0002130531065631658</v>
       </c>
       <c r="FL8" t="n">
-        <v>2.16075568459928e-05</v>
+        <v>7.269291381817311e-05</v>
       </c>
       <c r="FM8" t="n">
-        <v>4.747556886286475e-06</v>
+        <v>7.024141086731106e-05</v>
       </c>
       <c r="FN8" t="n">
-        <v>2.217920336988755e-05</v>
+        <v>0.0001282273879041895</v>
       </c>
       <c r="FO8" t="n">
-        <v>1.715645885269623e-05</v>
+        <v>0.0001839776814449579</v>
       </c>
       <c r="FP8" t="n">
-        <v>2.088360815832857e-05</v>
+        <v>0.0002999687567353249</v>
       </c>
       <c r="FQ8" t="n">
-        <v>8.475039794575423e-05</v>
+        <v>0.000258497369941324</v>
       </c>
       <c r="FR8" t="n">
-        <v>7.257356628542766e-06</v>
+        <v>3.065062628593296e-05</v>
       </c>
       <c r="FS8" t="n">
-        <v>8.840876034810208e-06</v>
+        <v>0.0001948139251908287</v>
       </c>
       <c r="FT8" t="n">
-        <v>5.003736077924259e-06</v>
+        <v>0.0006783086573705077</v>
       </c>
       <c r="FU8" t="n">
-        <v>1.029214763548225e-05</v>
+        <v>0.0001584257843205705</v>
       </c>
       <c r="FV8" t="n">
-        <v>6.586908057215624e-06</v>
+        <v>8.01302376203239e-05</v>
       </c>
       <c r="FW8" t="n">
-        <v>2.651331669767387e-07</v>
+        <v>0.000516046246048063</v>
       </c>
       <c r="FX8" t="n">
-        <v>2.255125582451001e-05</v>
+        <v>0.0001752520038280636</v>
       </c>
       <c r="FY8" t="n">
-        <v>2.624036096676718e-05</v>
+        <v>0.0002473206259310246</v>
       </c>
       <c r="FZ8" t="n">
-        <v>1.694461752776988e-05</v>
+        <v>3.540032776072621e-05</v>
       </c>
       <c r="GA8" t="n">
-        <v>3.575451046344824e-09</v>
+        <v>6.713751645293087e-05</v>
       </c>
       <c r="GB8" t="n">
-        <v>6.630220468650805e-06</v>
+        <v>0.0001095328989322297</v>
       </c>
       <c r="GC8" t="n">
-        <v>7.248242582136299e-06</v>
+        <v>7.69847902120091e-05</v>
       </c>
       <c r="GD8" t="n">
-        <v>2.921077611972578e-05</v>
+        <v>0.00022449555399362</v>
       </c>
       <c r="GE8" t="n">
-        <v>1.701185465208255e-05</v>
+        <v>0.0002152900851797312</v>
       </c>
       <c r="GF8" t="n">
-        <v>1.206504975925782e-06</v>
+        <v>5.107062315801159e-05</v>
       </c>
       <c r="GG8" t="n">
-        <v>1.873485598480329e-05</v>
+        <v>0.0004163378325756639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.281229384010658e-05</v>
+        <v>1.717701952896888e-10</v>
       </c>
       <c r="B9" t="n">
-        <v>3.167279282934032e-05</v>
+        <v>2.929938236473362e-10</v>
       </c>
       <c r="C9" t="n">
-        <v>7.974676918820478e-07</v>
+        <v>5.700439079103781e-11</v>
       </c>
       <c r="D9" t="n">
-        <v>2.846066126949154e-05</v>
+        <v>3.999888198435997e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>3.842260775854811e-05</v>
+        <v>3.409078852545377e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>7.684686352149583e-06</v>
+        <v>9.105430298639305e-11</v>
       </c>
       <c r="G9" t="n">
-        <v>3.294252383057028e-05</v>
+        <v>2.090616152417013e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>7.200435447884956e-06</v>
+        <v>6.329556323514396e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>6.676444627373712e-06</v>
+        <v>1.064757310098585e-10</v>
       </c>
       <c r="J9" t="n">
-        <v>7.376279245363548e-05</v>
+        <v>2.024690692881137e-10</v>
       </c>
       <c r="K9" t="n">
-        <v>1.386399435432395e-05</v>
+        <v>2.088098166597163e-10</v>
       </c>
       <c r="L9" t="n">
-        <v>8.138283192238305e-06</v>
+        <v>5.549442155805551e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>2.643201150931418e-05</v>
+        <v>1.464912774418181e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>5.52806886844337e-05</v>
+        <v>3.78991393823469e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.219495061377529e-06</v>
+        <v>2.745296212580683e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>3.946313881897368e-05</v>
+        <v>2.393113207599384e-10</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.462194854364498e-06</v>
+        <v>1.644480246421054e-10</v>
       </c>
       <c r="R9" t="n">
-        <v>1.378812885377556e-05</v>
+        <v>1.089594525716109e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>1.632604380574776e-07</v>
+        <v>4.038636092218439e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>9.748496268002782e-07</v>
+        <v>7.398429091587388e-11</v>
       </c>
       <c r="U9" t="n">
-        <v>1.543752091492934e-06</v>
+        <v>1.228015883425471e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>3.310947249701712e-06</v>
+        <v>2.571881770052631e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.161039330734638e-06</v>
+        <v>3.072899990019806e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>4.19999878431554e-07</v>
+        <v>9.716581012009229e-11</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.951014256628696e-06</v>
+        <v>1.763370144347576e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.515664007456508e-05</v>
+        <v>6.2508900833258e-11</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.700447566894582e-06</v>
+        <v>1.090015508409259e-10</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.614430953457486e-06</v>
+        <v>7.319769790292696e-12</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.575673301587813e-06</v>
+        <v>1.868769722301877e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.601946784532629e-06</v>
+        <v>1.102537713904006e-10</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.437733994360315e-06</v>
+        <v>6.797017115811599e-11</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.5911001557688e-06</v>
+        <v>1.276488498236361e-10</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.932372798473807e-06</v>
+        <v>9.991176636026111e-11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.359009274892742e-06</v>
+        <v>9.650247267956047e-11</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.288947260036366e-05</v>
+        <v>7.064401841283541e-11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.156425464112544e-06</v>
+        <v>6.514939282498133e-11</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.457542566640768e-05</v>
+        <v>8.208313195812167e-11</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.283828052895842e-06</v>
+        <v>4.755916147014538e-11</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.82158645556774e-06</v>
+        <v>8.704800075198804e-11</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.713233910384588e-06</v>
+        <v>3.451800650866588e-11</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.465472557058092e-06</v>
+        <v>2.441770917405162e-11</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.508813284090138e-06</v>
+        <v>5.746583764398849e-11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.647948576850467e-06</v>
+        <v>3.177188026559641e-11</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.324320682120742e-06</v>
+        <v>1.278153693995421e-10</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.551682645294932e-07</v>
+        <v>6.732935736719625e-11</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.60636659024749e-05</v>
+        <v>4.558274591115463e-11</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.487350325798616e-06</v>
+        <v>2.116798125673114e-10</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.739497967420903e-07</v>
+        <v>3.575592946725159e-11</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.718454071437009e-06</v>
+        <v>2.479432492652478e-10</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.657613423361909e-06</v>
+        <v>7.879179947378745e-11</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.502190444734879e-06</v>
+        <v>1.09376820101037e-10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5.367525773181114e-06</v>
+        <v>3.006260518301218e-11</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.741990212802193e-06</v>
+        <v>4.434202310887869e-11</v>
       </c>
       <c r="BB9" t="n">
-        <v>7.16483555152081e-07</v>
+        <v>9.198537764820713e-11</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.85027053905651e-05</v>
+        <v>6.906589189448198e-11</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.55870997736929e-06</v>
+        <v>1.010487526986736e-11</v>
       </c>
       <c r="BE9" t="n">
-        <v>4.169733983871993e-06</v>
+        <v>8.087109454324448e-11</v>
       </c>
       <c r="BF9" t="n">
-        <v>5.320037416822743e-06</v>
+        <v>1.588365723670382e-11</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.561725548526738e-05</v>
+        <v>2.725320802365871e-10</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.357290557280066e-06</v>
+        <v>7.251970551847009e-11</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.815726682252716e-05</v>
+        <v>4.936392961063518e-11</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.281543129356578e-05</v>
+        <v>1.693676865421878e-10</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.64968889496231e-06</v>
+        <v>7.679216984524118e-11</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.158413735742215e-06</v>
+        <v>8.148431235310838e-11</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.095029256248381e-05</v>
+        <v>2.367244594791984e-11</v>
       </c>
       <c r="BN9" t="n">
-        <v>4.571932663566258e-07</v>
+        <v>4.670440076348648e-11</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.236590651387814e-05</v>
+        <v>1.185055387153966e-10</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.062056617229246e-05</v>
+        <v>6.412452513426814e-11</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.791910785366781e-07</v>
+        <v>3.176428217677163e-11</v>
       </c>
       <c r="BR9" t="n">
-        <v>8.91882609721506e-06</v>
+        <v>4.642042999991602e-11</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.786710865620989e-06</v>
+        <v>1.120933554310533e-11</v>
       </c>
       <c r="BT9" t="n">
-        <v>2.41204907069914e-06</v>
+        <v>7.734656665148165e-11</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.792446866806131e-05</v>
+        <v>1.933681166577106e-11</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.922455223597353e-06</v>
+        <v>4.835782815848511e-11</v>
       </c>
       <c r="BW9" t="n">
-        <v>5.981697540846653e-06</v>
+        <v>1.365132035191507e-10</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.031519034062512e-05</v>
+        <v>3.251212493671218e-11</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.921896364365239e-05</v>
+        <v>6.01096533658918e-11</v>
       </c>
       <c r="BZ9" t="n">
-        <v>2.369336016272428e-07</v>
+        <v>7.803400980943564e-11</v>
       </c>
       <c r="CA9" t="n">
-        <v>4.459906449483242e-06</v>
+        <v>9.950571616679227e-11</v>
       </c>
       <c r="CB9" t="n">
-        <v>2.906223471654812e-06</v>
+        <v>1.130871177951187e-11</v>
       </c>
       <c r="CC9" t="n">
-        <v>2.571158574937726e-06</v>
+        <v>3.38954142531378e-11</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.532514033897314e-05</v>
+        <v>2.348198371859844e-11</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.353662264591549e-05</v>
+        <v>6.521559681171851e-11</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.022678816298139e-06</v>
+        <v>6.095345755907644e-11</v>
       </c>
       <c r="CG9" t="n">
-        <v>6.542476967297262e-06</v>
+        <v>1.105346977142707e-11</v>
       </c>
       <c r="CH9" t="n">
-        <v>7.430073310388252e-06</v>
+        <v>3.282945530008741e-12</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.322780804002832e-06</v>
+        <v>4.766493102992264e-11</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6.040282642061356e-06</v>
+        <v>1.217179568940852e-11</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.324016451093485e-07</v>
+        <v>1.166018843978822e-11</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.656516246839601e-06</v>
+        <v>8.829233177909401e-11</v>
       </c>
       <c r="CM9" t="n">
-        <v>6.171580935188103e-06</v>
+        <v>9.407608025924219e-11</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.879837317479542e-06</v>
+        <v>3.612158835930579e-11</v>
       </c>
       <c r="CO9" t="n">
-        <v>5.60540229344042e-06</v>
+        <v>1.871680935239262e-11</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.21315474138828e-06</v>
+        <v>9.024746228103453e-11</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6.005836894473759e-06</v>
+        <v>1.3422274403041e-10</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.136046648753108e-06</v>
+        <v>2.038835940354478e-11</v>
       </c>
       <c r="CS9" t="n">
-        <v>4.829588533539209e-07</v>
+        <v>1.403376581610161e-10</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.345784403383732e-05</v>
+        <v>1.396917217316718e-11</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.859235675918171e-06</v>
+        <v>2.018911773871146e-11</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.160346801043488e-05</v>
+        <v>1.569271795842653e-11</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.353109655610751e-05</v>
+        <v>5.665267560628351e-11</v>
       </c>
       <c r="CX9" t="n">
-        <v>3.98822658098652e-06</v>
+        <v>6.492303916694198e-11</v>
       </c>
       <c r="CY9" t="n">
-        <v>5.295753453538055e-06</v>
+        <v>5.084035969993295e-11</v>
       </c>
       <c r="CZ9" t="n">
-        <v>3.859444404952228e-06</v>
+        <v>1.763081868000338e-11</v>
       </c>
       <c r="DA9" t="n">
-        <v>4.538112818863738e-07</v>
+        <v>6.361917936903438e-11</v>
       </c>
       <c r="DB9" t="n">
-        <v>6.647710506513249e-06</v>
+        <v>2.040753156740127e-11</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.266391109311371e-06</v>
+        <v>1.015250904179421e-11</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.778385467332555e-06</v>
+        <v>7.628657427982688e-11</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.100034751289058e-06</v>
+        <v>1.307222385893425e-10</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.523570219636895e-05</v>
+        <v>2.577272284476351e-10</v>
       </c>
       <c r="DG9" t="n">
-        <v>8.444420018349774e-06</v>
+        <v>7.138131752348897e-11</v>
       </c>
       <c r="DH9" t="n">
-        <v>4.971673206455307e-06</v>
+        <v>2.42267067518398e-10</v>
       </c>
       <c r="DI9" t="n">
-        <v>5.36003881279612e-06</v>
+        <v>3.811231330530518e-10</v>
       </c>
       <c r="DJ9" t="n">
-        <v>3.97687927033985e-07</v>
+        <v>7.356598663577074e-11</v>
       </c>
       <c r="DK9" t="n">
-        <v>8.978136975201778e-06</v>
+        <v>1.887542622203142e-10</v>
       </c>
       <c r="DL9" t="n">
-        <v>8.081009582383558e-06</v>
+        <v>3.081859212272775e-10</v>
       </c>
       <c r="DM9" t="n">
-        <v>9.062007848115172e-06</v>
+        <v>1.085223508279221e-10</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.768117610685294e-06</v>
+        <v>7.232694998471345e-11</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.112363224820001e-05</v>
+        <v>3.23404150681661e-11</v>
       </c>
       <c r="DP9" t="n">
-        <v>4.935342076350935e-06</v>
+        <v>4.434129279029531e-12</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.225845153385308e-06</v>
+        <v>1.599683996378332e-10</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.473861049016705e-06</v>
+        <v>1.835224854029871e-11</v>
       </c>
       <c r="DS9" t="n">
-        <v>3.199841103196377e-06</v>
+        <v>8.487946456803286e-11</v>
       </c>
       <c r="DT9" t="n">
-        <v>8.202719641303702e-07</v>
+        <v>1.043764553954052e-11</v>
       </c>
       <c r="DU9" t="n">
-        <v>6.097440291341627e-06</v>
+        <v>4.98771128565334e-11</v>
       </c>
       <c r="DV9" t="n">
-        <v>3.977035703428555e-06</v>
+        <v>1.183025066797683e-10</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.70425550499931e-06</v>
+        <v>2.254286167457931e-11</v>
       </c>
       <c r="DX9" t="n">
-        <v>7.28522945792065e-06</v>
+        <v>6.469479119086685e-11</v>
       </c>
       <c r="DY9" t="n">
-        <v>6.170775577629684e-06</v>
+        <v>2.205344518113606e-10</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.475405264907749e-06</v>
+        <v>1.978479012565426e-12</v>
       </c>
       <c r="EA9" t="n">
-        <v>7.163446298363851e-06</v>
+        <v>1.37083322124254e-11</v>
       </c>
       <c r="EB9" t="n">
-        <v>4.75946080769063e-06</v>
+        <v>1.166829965981719e-10</v>
       </c>
       <c r="EC9" t="n">
-        <v>4.609025836543879e-06</v>
+        <v>1.953455973369156e-11</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.684830203885213e-05</v>
+        <v>4.939934572512072e-11</v>
       </c>
       <c r="EE9" t="n">
-        <v>2.433566351101035e-06</v>
+        <v>1.82900760509197e-11</v>
       </c>
       <c r="EF9" t="n">
-        <v>2.624835724418517e-05</v>
+        <v>3.45507303323167e-12</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.164689067285508e-05</v>
+        <v>9.752337826185453e-11</v>
       </c>
       <c r="EH9" t="n">
-        <v>5.277549917082069e-06</v>
+        <v>8.113942157050857e-11</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.102956684917444e-05</v>
+        <v>5.922710932804165e-11</v>
       </c>
       <c r="EJ9" t="n">
-        <v>9.891992704069708e-06</v>
+        <v>6.752436110257776e-11</v>
       </c>
       <c r="EK9" t="n">
-        <v>2.479330305504845e-06</v>
+        <v>7.347510794231127e-11</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.642058464312868e-06</v>
+        <v>4.450970841896051e-11</v>
       </c>
       <c r="EM9" t="n">
-        <v>5.42838461115025e-06</v>
+        <v>1.078987680452892e-11</v>
       </c>
       <c r="EN9" t="n">
-        <v>5.379524736781605e-08</v>
+        <v>5.755026316611733e-11</v>
       </c>
       <c r="EO9" t="n">
-        <v>5.098499059386086e-06</v>
+        <v>1.997409182497023e-12</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.571557550050784e-05</v>
+        <v>5.391489338313349e-11</v>
       </c>
       <c r="EQ9" t="n">
-        <v>7.206242571555777e-07</v>
+        <v>7.849736138876295e-11</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.285544158236007e-06</v>
+        <v>7.62956711697349e-12</v>
       </c>
       <c r="ES9" t="n">
-        <v>9.89338423096342e-06</v>
+        <v>1.272490862680442e-10</v>
       </c>
       <c r="ET9" t="n">
-        <v>5.747996283389512e-07</v>
+        <v>5.528635882434685e-11</v>
       </c>
       <c r="EU9" t="n">
-        <v>5.930552561039804e-06</v>
+        <v>4.099939832080679e-11</v>
       </c>
       <c r="EV9" t="n">
-        <v>8.749510698180529e-07</v>
+        <v>2.291209305615993e-10</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.582294430590991e-06</v>
+        <v>2.603729384875741e-11</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.293292552873027e-05</v>
+        <v>1.149869175570695e-11</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.058873476722511e-05</v>
+        <v>4.974305689575687e-11</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.577710347395623e-06</v>
+        <v>3.640784895786453e-11</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.991282134549692e-06</v>
+        <v>4.042150988925464e-11</v>
       </c>
       <c r="FB9" t="n">
-        <v>5.016691829951014e-06</v>
+        <v>2.339313118215891e-11</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.593074784977944e-06</v>
+        <v>3.394110686949503e-11</v>
       </c>
       <c r="FD9" t="n">
-        <v>5.34095579496352e-06</v>
+        <v>2.104059634855382e-11</v>
       </c>
       <c r="FE9" t="n">
-        <v>6.270453241086216e-07</v>
+        <v>1.484193670742151e-11</v>
       </c>
       <c r="FF9" t="n">
-        <v>5.752656306867721e-07</v>
+        <v>9.010039242474122e-11</v>
       </c>
       <c r="FG9" t="n">
-        <v>6.79660115565639e-06</v>
+        <v>2.958405395658836e-11</v>
       </c>
       <c r="FH9" t="n">
-        <v>4.277828338672407e-06</v>
+        <v>5.768849634102402e-11</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.991624458241859e-06</v>
+        <v>2.126604448093872e-10</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.149739652348217e-06</v>
+        <v>2.141907762265305e-10</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.02973044704413e-05</v>
+        <v>8.604585099991624e-11</v>
       </c>
       <c r="FL9" t="n">
-        <v>6.715450581395999e-06</v>
+        <v>2.907732388202078e-11</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.222273673804011e-06</v>
+        <v>7.539269555878469e-12</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.212273557233857e-06</v>
+        <v>1.338677502182861e-10</v>
       </c>
       <c r="FO9" t="n">
-        <v>4.195507017357158e-07</v>
+        <v>1.151071390981251e-10</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.11749750431045e-05</v>
+        <v>2.744591359737925e-11</v>
       </c>
       <c r="FQ9" t="n">
-        <v>2.381104422966018e-05</v>
+        <v>4.244593565516652e-11</v>
       </c>
       <c r="FR9" t="n">
-        <v>6.264898729568813e-06</v>
+        <v>1.55417206881836e-10</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.976691121148178e-06</v>
+        <v>1.328813586942701e-10</v>
       </c>
       <c r="FT9" t="n">
-        <v>8.424663064943161e-06</v>
+        <v>9.812137907738716e-11</v>
       </c>
       <c r="FU9" t="n">
-        <v>7.086503501341213e-06</v>
+        <v>2.099993096082997e-11</v>
       </c>
       <c r="FV9" t="n">
-        <v>3.106843450950691e-06</v>
+        <v>5.610497136321335e-11</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.335233148187399e-06</v>
+        <v>3.355560274087566e-11</v>
       </c>
       <c r="FX9" t="n">
-        <v>3.116964307992021e-06</v>
+        <v>3.177767771145312e-11</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.045906446961453e-05</v>
+        <v>1.653040898608182e-10</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4.929311671730829e-06</v>
+        <v>7.199957297032711e-11</v>
       </c>
       <c r="GA9" t="n">
-        <v>8.133293704304378e-06</v>
+        <v>6.997753071447121e-12</v>
       </c>
       <c r="GB9" t="n">
-        <v>8.316103048855439e-06</v>
+        <v>7.541503532770832e-11</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.710755891006556e-06</v>
+        <v>1.960899359554347e-10</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.980308752536075e-06</v>
+        <v>3.415711507040453e-12</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.666014208647539e-06</v>
+        <v>2.760297268533662e-10</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.171750227513257e-06</v>
+        <v>3.704594964126784e-11</v>
       </c>
       <c r="GG9" t="n">
-        <v>3.356380602781428e-06</v>
+        <v>9.180622928539606e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003940088674426079</v>
+        <v>0.0005437594372779131</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000769984966609627</v>
+        <v>0.01948164589703083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004939673002809286</v>
+        <v>0.001295594498515129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001141914050094783</v>
+        <v>0.007465387228876352</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003950175829231739</v>
+        <v>0.002245426876470447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003227694251108915</v>
+        <v>0.009139427915215492</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008295630686916411</v>
+        <v>0.001598745933733881</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002737877657637</v>
+        <v>0.005721834488213062</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008276763837784529</v>
+        <v>0.003125509014353156</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004261747468262911</v>
+        <v>0.002785509219393134</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0009654883178882301</v>
+        <v>0.01762391999363899</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005259369965642691</v>
+        <v>0.0001915556495077908</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000455808243714273</v>
+        <v>0.006247407291084528</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001942517817951739</v>
+        <v>0.0001284909376408905</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0004708607739303261</v>
+        <v>0.007767750881612301</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0009991342667490244</v>
+        <v>0.0005015545757487416</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0009859732817858458</v>
+        <v>0.0005931388586759567</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001174142700619996</v>
+        <v>0.003790396265685558</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001077984488802031</v>
+        <v>0.001040843548253179</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001461372128687799</v>
+        <v>0.001547596184536815</v>
       </c>
       <c r="U10" t="n">
-        <v>0.000139495576149784</v>
+        <v>0.0001311447704210877</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001864292134996504</v>
+        <v>0.001492357579991221</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0004757113056257367</v>
+        <v>0.003267225343734026</v>
       </c>
       <c r="X10" t="n">
-        <v>7.735456165391952e-05</v>
+        <v>0.002309468807652593</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0005905284197069705</v>
+        <v>0.0006054706173017621</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0008371066069230437</v>
+        <v>0.00395846227183938</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0002428688458167017</v>
+        <v>0.002893255092203617</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.863296195864677e-05</v>
+        <v>0.0008065177826210856</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0001537438365630805</v>
+        <v>0.0003967441152781248</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0003198640770278871</v>
+        <v>0.0008075012592598796</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0007881112396717072</v>
+        <v>0.0008939719991758466</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0001016725509543903</v>
+        <v>5.804811371490359e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0001571318425703794</v>
+        <v>0.0008972235955297947</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0007407799712382257</v>
+        <v>0.0002722018689382821</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.00103716307785362</v>
+        <v>0.0004551914753392339</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.001055434579029679</v>
+        <v>0.0005107471370138228</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.001167733571492136</v>
+        <v>0.000763239455409348</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001405915128998458</v>
+        <v>0.002803865587338805</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0006229727296158671</v>
+        <v>0.0004315804690122604</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0007504694513045251</v>
+        <v>0.00174347625579685</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0001177210360765457</v>
+        <v>0.0004134612972848117</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0004394265415612608</v>
+        <v>0.0023809471167624</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9.906906052492559e-05</v>
+        <v>0.000856453669257462</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.000480898714158684</v>
+        <v>0.001140867359936237</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.356933878734708e-05</v>
+        <v>0.002045114059001207</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.001710881013423204</v>
+        <v>0.002117503667250276</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.001221984857693315</v>
+        <v>0.01097353175282478</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.002963805105537176</v>
+        <v>0.0009329977910965681</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0006032583187334239</v>
+        <v>0.002770890947431326</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.767084414605051e-05</v>
+        <v>0.0004904841771349311</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.001467401161789894</v>
+        <v>0.005685090553015471</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0007507059490308166</v>
+        <v>0.004755707923322916</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0001995563070522621</v>
+        <v>0.002387858927249908</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0005356468027457595</v>
+        <v>0.00399227486923337</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0004366660141386092</v>
+        <v>0.0008072585333138704</v>
       </c>
       <c r="BD10" t="n">
-        <v>8.343690569745377e-05</v>
+        <v>0.00416128896176815</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001043039956130087</v>
+        <v>0.003806783584877849</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.000133246518089436</v>
+        <v>2.613948890939355e-05</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.00207224884070456</v>
+        <v>0.001522576319985092</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0003883205645252019</v>
+        <v>0.001418359111994505</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.001065010903403163</v>
+        <v>0.002505209296941757</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.001108206459321082</v>
+        <v>0.002660064492374659</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.000318544713081792</v>
+        <v>0.003414977341890335</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0002483107382431626</v>
+        <v>5.731430428568274e-05</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0006771012558601797</v>
+        <v>0.002128142397850752</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.001099491259083152</v>
+        <v>0.001990841701626778</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0001024515004246496</v>
+        <v>0.0004135955241508782</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0008982255822047591</v>
+        <v>0.001344913500361145</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0002966967294923961</v>
+        <v>5.749461706727743e-07</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0005503549473360181</v>
+        <v>0.000975141185335815</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0008363011293113232</v>
+        <v>0.001306880731135607</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0001209738620673306</v>
+        <v>0.0002852262696251273</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.001973147969692945</v>
+        <v>0.001188283320516348</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0002869171730708331</v>
+        <v>0.007162912283092737</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.001489359769038856</v>
+        <v>0.001551072113215923</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0003785319859161973</v>
+        <v>0.00136478862259537</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0007014021393842995</v>
+        <v>0.0004174812056589872</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0007069245330058038</v>
+        <v>0.002442259341478348</v>
       </c>
       <c r="CA10" t="n">
-        <v>9.167476673610508e-05</v>
+        <v>0.0002399572404101491</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.945873711723834e-05</v>
+        <v>0.0002504309522919357</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0001457643083995208</v>
+        <v>0.002561430912464857</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0009109656093642116</v>
+        <v>0.0001981302484637126</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.00113712705206126</v>
+        <v>0.003255100687965751</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0008359066559933126</v>
+        <v>0.001584302634000778</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.464823774062097e-05</v>
+        <v>0.0006653739837929606</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0005313818110153079</v>
+        <v>0.000449057697551325</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0003641764633357525</v>
+        <v>0.001233516377396882</v>
       </c>
       <c r="CJ10" t="n">
-        <v>5.333139779395424e-05</v>
+        <v>0.001505811349488795</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0001651866477914155</v>
+        <v>0.0009891523513942957</v>
       </c>
       <c r="CL10" t="n">
-        <v>8.302533387904987e-05</v>
+        <v>0.001729588024318218</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0002421240060357377</v>
+        <v>0.003864525351673365</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0001803962222766131</v>
+        <v>0.00126612838357687</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0001239195262314752</v>
+        <v>2.650129317771643e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0007614705245941877</v>
+        <v>0.00499879801645875</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.622084528207779e-05</v>
+        <v>0.001701390603557229</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0001544527040096</v>
+        <v>0.002494193846359849</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0002807324926834553</v>
+        <v>0.003778737969696522</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0006795433582738042</v>
+        <v>0.003632978303357959</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.000468482612632215</v>
+        <v>0.0007802916807122529</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0008321520290337503</v>
+        <v>9.411925566382706e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.001063372706994414</v>
+        <v>0.00321298441849649</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0009381031850352883</v>
+        <v>0.001644684700295329</v>
       </c>
       <c r="CY10" t="n">
-        <v>7.134834595490247e-05</v>
+        <v>0.001654027262702584</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.001032351865433156</v>
+        <v>0.0006331672775559127</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0003861009317915887</v>
+        <v>0.001007154118269682</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001183493295684457</v>
+        <v>0.001411720528267324</v>
       </c>
       <c r="DC10" t="n">
-        <v>5.450749813462608e-05</v>
+        <v>0.001946404343470931</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0001517514465376735</v>
+        <v>0.00142511329613626</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0001500689832028002</v>
+        <v>0.0008427157299593091</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.002937570679932833</v>
+        <v>0.004048991482704878</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.001280526979826391</v>
+        <v>0.0005713548744097352</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0002938173129223287</v>
+        <v>0.005096034146845341</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0004647435853257775</v>
+        <v>0.003602877492085099</v>
       </c>
       <c r="DJ10" t="n">
-        <v>9.854882955551147e-05</v>
+        <v>0.007104035932570696</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0002472421329002827</v>
+        <v>0.0005553795490413904</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0003046819183509797</v>
+        <v>0.00312126218341291</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0005233649862930179</v>
+        <v>0.003108812496066093</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0001209372567245737</v>
+        <v>0.0006242624949663877</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.001293242210522294</v>
+        <v>0.001558622112497687</v>
       </c>
       <c r="DP10" t="n">
-        <v>5.895666254218668e-05</v>
+        <v>0.00152816844638437</v>
       </c>
       <c r="DQ10" t="n">
-        <v>4.961965896654874e-05</v>
+        <v>0.0005834851763211191</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0005293549620546401</v>
+        <v>0.0006219659117050469</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0003347401507198811</v>
+        <v>0.002276551676914096</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0002761464274954051</v>
+        <v>0.002984070451930165</v>
       </c>
       <c r="DU10" t="n">
-        <v>6.234249303815886e-05</v>
+        <v>0.0008210767991840839</v>
       </c>
       <c r="DV10" t="n">
-        <v>7.05340426065959e-06</v>
+        <v>3.091612597927451e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.000470079859951511</v>
+        <v>0.000385293154977262</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0002417390496702865</v>
+        <v>0.002495004329830408</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0001746946800267324</v>
+        <v>0.0006182303186506033</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0004171922628302127</v>
+        <v>0.001161490217782557</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0008041606051847339</v>
+        <v>0.001328627578914165</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0001805839128792286</v>
+        <v>0.001064674463123083</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0005690642283298075</v>
+        <v>0.0006583775975741446</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0004908700357191265</v>
+        <v>0.0003877740236930549</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0004929937422275543</v>
+        <v>0.004134985618293285</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.00157897686585784</v>
+        <v>0.001191895105876029</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0005682373302988708</v>
+        <v>0.003318991977721453</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0009376085945405066</v>
+        <v>0.001658407039940357</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0003798235848080367</v>
+        <v>0.0007453382131643593</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0006384657463058829</v>
+        <v>0.001018176088109612</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.001253463211469352</v>
+        <v>0.001756893936544657</v>
       </c>
       <c r="EL10" t="n">
-        <v>9.93367430055514e-05</v>
+        <v>0.001627509715035558</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0007377290166914463</v>
+        <v>0.0003310015599709004</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0004474424058571458</v>
+        <v>0.0008539868285879493</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0002767929981928319</v>
+        <v>0.0001202081912197173</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0006058854050934315</v>
+        <v>0.0023084816057235</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0001233366347150877</v>
+        <v>0.001977961277589202</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0001686195755610242</v>
+        <v>0.000987027189694345</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0008066970622166991</v>
+        <v>0.002386213047429919</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0008484952850267291</v>
+        <v>0.001242951606400311</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0006011750665493309</v>
+        <v>0.004274999722838402</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0001227649627253413</v>
+        <v>0.003652184037491679</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0003677852801047266</v>
+        <v>8.492569031659514e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0009321954566985369</v>
+        <v>0.0005253602284938097</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0009051565430127084</v>
+        <v>0.00304592470638454</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0009710728190839291</v>
+        <v>0.001382906455546618</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.711994577315636e-05</v>
+        <v>0.0005876255454495549</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0008328396361321211</v>
+        <v>0.0004877387837041169</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0001021599018713459</v>
+        <v>0.0008585311588831246</v>
       </c>
       <c r="FD10" t="n">
-        <v>5.309977132128552e-05</v>
+        <v>0.002494475804269314</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0002829164732247591</v>
+        <v>0.001621525269001722</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.0002743891964200884</v>
+        <v>0.002051535062491894</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0006051117088645697</v>
+        <v>0.0009190283017233014</v>
       </c>
       <c r="FH10" t="n">
-        <v>8.561991853639483e-05</v>
+        <v>0.0009835816454142332</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0009244260145351291</v>
+        <v>0.001499736332334578</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001028307364322245</v>
+        <v>0.002393063623458147</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0003887322382070124</v>
+        <v>0.0007792030810378492</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.001007769373245537</v>
+        <v>0.0001469500712119043</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0006056891870684922</v>
+        <v>0.001528166932985187</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0003605892707128078</v>
+        <v>0.0009596754098311067</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0007538191275671124</v>
+        <v>0.0003100563189946115</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0008032176992855966</v>
+        <v>0.001727932598441839</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.002618530765175819</v>
+        <v>0.001222468446940184</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0003310538013465703</v>
+        <v>0.004529111087322235</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0006783006829209626</v>
+        <v>0.003116928972303867</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0001741470041451976</v>
+        <v>0.0008409902220591903</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0007537781493738294</v>
+        <v>0.001069480320438743</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0002109130728058517</v>
+        <v>0.002054873388260603</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0003623334923759103</v>
+        <v>0.001261553610675037</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0001720089494483545</v>
+        <v>0.002244528150185943</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0003778217360377312</v>
+        <v>0.002322398591786623</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0004139359225519001</v>
+        <v>0.0008363052038475871</v>
       </c>
       <c r="GA10" t="n">
-        <v>5.825454718433321e-05</v>
+        <v>0.0009992518462240696</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0003627752012107521</v>
+        <v>0.0004833510611206293</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0003878795250784606</v>
+        <v>0.0005103247822262347</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0009265438420698047</v>
+        <v>0.0009484419715590775</v>
       </c>
       <c r="GE10" t="n">
-        <v>9.212366421706975e-06</v>
+        <v>0.00479845330119133</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0001737463171593845</v>
+        <v>0.001028165919706225</v>
       </c>
       <c r="GG10" t="n">
-        <v>4.802797047886997e-05</v>
+        <v>0.0005613301182165742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.009744030423462391</v>
+        <v>0.02308423258364201</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002893272321671247</v>
+        <v>0.2700941860675812</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009537220001220703</v>
+        <v>0.0121845779940486</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001829907880164683</v>
+        <v>0.1400018483400345</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003186261979863048</v>
+        <v>0.03652042523026466</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001974769635125995</v>
+        <v>0.2636938095092773</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001484182896092534</v>
+        <v>0.004772966727614403</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001710375072434545</v>
+        <v>0.09588789939880371</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002241447800770402</v>
+        <v>0.03361897543072701</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00935041718184948</v>
+        <v>0.05820509791374207</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001754931407049298</v>
+        <v>0.2540064752101898</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01109515409916639</v>
+        <v>0.00303701451048255</v>
       </c>
       <c r="M11" t="n">
-        <v>4.173598426859826e-05</v>
+        <v>0.1028423234820366</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001014347653836012</v>
+        <v>0.001460518687963486</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002600353211164474</v>
+        <v>0.2426442503929138</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002642733277752995</v>
+        <v>0.01864532195031643</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0006998344324529171</v>
+        <v>0.04840560629963875</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003135195001959801</v>
+        <v>0.009806429035961628</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0001982151006814092</v>
+        <v>0.01251366175711155</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001247429172508419</v>
+        <v>0.01337157469242811</v>
       </c>
       <c r="U11" t="n">
-        <v>0.000761254399549216</v>
+        <v>0.02460465952754021</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0003047161735594273</v>
+        <v>0.04296129196882248</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0006259296787902713</v>
+        <v>0.07205949723720551</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001239390694536269</v>
+        <v>0.01753161661326885</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.000704474572557956</v>
+        <v>0.02438260987401009</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001501435646787286</v>
+        <v>0.06725317239761353</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0003938948211725801</v>
+        <v>0.04252458363771439</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.562691411701962e-05</v>
+        <v>0.005329102277755737</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0005717702442780137</v>
+        <v>0.01731729507446289</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0004535216721706092</v>
+        <v>0.01848237402737141</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001321676187217236</v>
+        <v>0.01523731276392937</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.910911856219172e-05</v>
+        <v>0.02967013418674469</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0008965564193204045</v>
+        <v>0.02477460727095604</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0005727309617213905</v>
+        <v>0.01395186129957438</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.002383389510214329</v>
+        <v>0.006000030785799026</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.001391110825352371</v>
+        <v>0.02479415200650692</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.002236151834949851</v>
+        <v>0.02446242980659008</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.001023092772811651</v>
+        <v>0.04352667927742004</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.001124691683799028</v>
+        <v>0.001667232252657413</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001594718778505921</v>
+        <v>0.006943641230463982</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.306075662607327e-05</v>
+        <v>0.001152393873780966</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.000755244109313935</v>
+        <v>0.03269098326563835</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.000168437763932161</v>
+        <v>0.002945689484477043</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001083322567865252</v>
+        <v>0.0170839000493288</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0003134885628242046</v>
+        <v>0.02470722794532776</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.004438608884811401</v>
+        <v>0.02915184944868088</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0004817590233869851</v>
+        <v>0.1975713521242142</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.004811306484043598</v>
+        <v>0.001950948499143124</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0016358548309654</v>
+        <v>0.05770295858383179</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.00102381594479084</v>
+        <v>0.02765282057225704</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.001532526104710996</v>
+        <v>0.1364703774452209</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0008756443276070058</v>
+        <v>0.01165301818400621</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0003905824560206383</v>
+        <v>0.02164324559271336</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0003002805169671774</v>
+        <v>0.0653376579284668</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.001562722609378397</v>
+        <v>0.02452132478356361</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0004825677024200559</v>
+        <v>0.0472516342997551</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.002666384913027287</v>
+        <v>0.06001319363713264</v>
       </c>
       <c r="BF11" t="n">
-        <v>7.288201595656574e-05</v>
+        <v>0.009381678886711597</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.003068263176828623</v>
+        <v>0.05216707661747932</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.001443460583686829</v>
+        <v>0.08037464320659637</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.001749750808812678</v>
+        <v>0.01857436820864677</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001098371925763786</v>
+        <v>0.01689907163381577</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.000524162664078176</v>
+        <v>0.001865943893790245</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0005308684194460511</v>
+        <v>0.001097093801945448</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.001255891867913306</v>
+        <v>0.07127029448747635</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.001536308322101831</v>
+        <v>0.01000308804214001</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0007341859745793045</v>
+        <v>0.02312815375626087</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.00243314215913415</v>
+        <v>0.006425327155739069</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.001026898389682174</v>
+        <v>0.00216773385182023</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.000857060425914824</v>
+        <v>0.01239768415689468</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.001360847498290241</v>
+        <v>0.00272298650816083</v>
       </c>
       <c r="BT11" t="n">
-        <v>6.385410961229354e-05</v>
+        <v>0.004344434011727571</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.00409735320135951</v>
+        <v>0.01975430175662041</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0002469976898282766</v>
+        <v>0.1018017828464508</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.001968869706615806</v>
+        <v>0.0128833893686533</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0004917642800137401</v>
+        <v>0.05302686616778374</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.001655431580729783</v>
+        <v>0.02663053944706917</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0008180622244253755</v>
+        <v>0.05129071325063705</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0008705634973011911</v>
+        <v>0.01684296317398548</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0004640732950065285</v>
+        <v>0.0006298068910837173</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.001355645013973117</v>
+        <v>0.04623309522867203</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.002089559799060225</v>
+        <v>0.004180599004030228</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.002311294199898839</v>
+        <v>0.03300882875919342</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.001932861632667482</v>
+        <v>0.0277280043810606</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0002108961489284411</v>
+        <v>0.02199049666523933</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0001637347450014204</v>
+        <v>0.003947626799345016</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0008716160082258284</v>
+        <v>0.04461454972624779</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0001757477002684027</v>
+        <v>0.01749347895383835</v>
       </c>
       <c r="CK11" t="n">
-        <v>5.508391768671572e-05</v>
+        <v>0.01310320012271404</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0002117220428772271</v>
+        <v>0.02309484034776688</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0008017897489480674</v>
+        <v>0.05126170441508293</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0001515451294835657</v>
+        <v>0.005598020739853382</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0002184681943617761</v>
+        <v>0.006117299664765596</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.001286249957047403</v>
+        <v>0.01507003419101238</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.002243936527520418</v>
+        <v>0.01949442736804485</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0003884871839545667</v>
+        <v>0.003078053239732981</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.000610578921623528</v>
+        <v>0.05300744995474815</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0001007026294246316</v>
+        <v>0.05403919517993927</v>
       </c>
       <c r="CU11" t="n">
-        <v>3.876106347888708e-06</v>
+        <v>0.005935311317443848</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.001871610525995493</v>
+        <v>0.002167431637644768</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.00206369417719543</v>
+        <v>0.02796841599047184</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.002210072707384825</v>
+        <v>0.02205833047628403</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.000406205072067678</v>
+        <v>0.03464195877313614</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.001267791260033846</v>
+        <v>0.005702638067305088</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.001151668140664697</v>
+        <v>0.04850707203149796</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0002276001468999311</v>
+        <v>0.01737946271896362</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0002900878607761115</v>
+        <v>0.02640135586261749</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0001479299389757216</v>
+        <v>0.008576655760407448</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0009525887435302138</v>
+        <v>0.005576861556619406</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.005426791496574879</v>
+        <v>0.009329527616500854</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001747578382492065</v>
+        <v>0.008913579396903515</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0005086004384793341</v>
+        <v>0.1084200292825699</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.001432004617527127</v>
+        <v>0.03606671094894409</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.001073377672582865</v>
+        <v>0.002494313754141331</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.001071204547770321</v>
+        <v>0.005248419940471649</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0003101492184214294</v>
+        <v>0.03802705556154251</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.538702731020749e-05</v>
+        <v>0.01558523345738649</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.000385987339541316</v>
+        <v>0.005589612759649754</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.002660287776961923</v>
+        <v>0.007432531099766493</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0005925270961597562</v>
+        <v>0.01535838469862938</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0001227255561389029</v>
+        <v>0.002569898962974548</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0005706941592507064</v>
+        <v>0.01032143458724022</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0005425828276202083</v>
+        <v>0.004753006622195244</v>
       </c>
       <c r="DT11" t="n">
-        <v>2.04832322197035e-05</v>
+        <v>0.02424870431423187</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0005382741801440716</v>
+        <v>0.0107392119243741</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0005150785436853766</v>
+        <v>0.03175603970885277</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.001282268087379634</v>
+        <v>0.002269883640110493</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.001181355444714427</v>
+        <v>0.02471088618040085</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0005422401009127498</v>
+        <v>0.02203634567558765</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.00115062587428838</v>
+        <v>0.002790269441902637</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0008774572052061558</v>
+        <v>0.0009887428022921085</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.000110298627987504</v>
+        <v>0.01825403608381748</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0006436947151087224</v>
+        <v>0.002931427676230669</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0008070894400589168</v>
+        <v>0.01158789545297623</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0001821147161535919</v>
+        <v>0.0023620689753443</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.003054928965866566</v>
+        <v>0.01429750118404627</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.001449419185519218</v>
+        <v>0.03707843646407127</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.002239003777503967</v>
+        <v>0.01671922020614147</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0004178135714028031</v>
+        <v>0.007259863428771496</v>
       </c>
       <c r="EJ11" t="n">
-        <v>7.292022928595543e-05</v>
+        <v>0.002123698126524687</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.002664394909515977</v>
+        <v>0.04727816581726074</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0001655923842918128</v>
+        <v>0.01379426103085279</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.001526571810245514</v>
+        <v>0.006734445225447416</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.001051732921041548</v>
+        <v>0.01293251849710941</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.001129296375438571</v>
+        <v>0.005293264053761959</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.001548091066069901</v>
+        <v>0.01254746876657009</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0003367187455296516</v>
+        <v>0.01478577218949795</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.000165488658240065</v>
+        <v>0.0212175901979208</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.001182900741696358</v>
+        <v>0.009346412494778633</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0008050753967836499</v>
+        <v>0.04084492847323418</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0001565024722367525</v>
+        <v>0.031680628657341</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0005791392177343369</v>
+        <v>0.07610173523426056</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.0005583714228123426</v>
+        <v>0.01037327572703362</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.001987364375963807</v>
+        <v>0.002322782995179296</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.001864824327640235</v>
+        <v>0.02568789012730122</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.001994295977056026</v>
+        <v>0.01824776083230972</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0002288181422045454</v>
+        <v>0.03007044643163681</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0009384755976498127</v>
+        <v>0.001091984333470464</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0004100301885046065</v>
+        <v>0.0403733029961586</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0001826224033720791</v>
+        <v>0.02913432754576206</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0002613436663523316</v>
+        <v>0.01410173624753952</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0004902812652289867</v>
+        <v>0.02204821072518826</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0008052625926211476</v>
+        <v>0.01217825710773468</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0007798814913257957</v>
+        <v>0.0006711384048685431</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.002601751126348972</v>
+        <v>0.009708542376756668</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.001656744396314025</v>
+        <v>0.04318524897098541</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0002488718600943685</v>
+        <v>0.01101253926753998</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.001170823583379388</v>
+        <v>0.02679337002336979</v>
       </c>
       <c r="FM11" t="n">
-        <v>3.166219539707527e-05</v>
+        <v>0.008857926353812218</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0007985442643985152</v>
+        <v>0.02129599824547768</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0002298077597515658</v>
+        <v>0.01910114102065563</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.001475192373618484</v>
+        <v>0.01442377828061581</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.004744387231767178</v>
+        <v>0.05279998481273651</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.001098695094697177</v>
+        <v>0.03885854780673981</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0007549251895397902</v>
+        <v>0.02426140382885933</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0007335201371461153</v>
+        <v>0.01370736956596375</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.001328346668742597</v>
+        <v>0.008922290056943893</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0003631991276051849</v>
+        <v>0.02142512053251266</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0005352834705263376</v>
+        <v>0.003675260348245502</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.0003690080193337053</v>
+        <v>0.01859917491674423</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.00130226428154856</v>
+        <v>0.04650051146745682</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001216456294059753</v>
+        <v>0.01996774598956108</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.001131706987507641</v>
+        <v>0.03209981322288513</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0004599715175572783</v>
+        <v>0.01183719653636217</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.00188263482414186</v>
+        <v>0.02790356427431107</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.000108276610262692</v>
+        <v>0.01698098331689835</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0006873371894471347</v>
+        <v>0.1272857487201691</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.000171040344866924</v>
+        <v>0.001055099070072174</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0009929733350872993</v>
+        <v>0.005722253583371639</v>
       </c>
     </row>
     <row r="12">
@@ -7832,1140 +7832,1140 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001855727459769696</v>
+        <v>0.0001625073055038229</v>
       </c>
       <c r="B14" t="n">
-        <v>1.178873208118603e-05</v>
+        <v>0.003670740406960249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000215908934478648</v>
+        <v>6.533721898449585e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>5.290899571264163e-05</v>
+        <v>0.0009331564069725573</v>
       </c>
       <c r="E14" t="n">
-        <v>9.664431127021089e-05</v>
+        <v>0.001097588567063212</v>
       </c>
       <c r="F14" t="n">
-        <v>5.140273060533218e-06</v>
+        <v>0.001307672588154674</v>
       </c>
       <c r="G14" t="n">
-        <v>6.318947998806834e-05</v>
+        <v>0.0004255551612004638</v>
       </c>
       <c r="H14" t="n">
-        <v>3.937262226827443e-05</v>
+        <v>0.0005912304040975869</v>
       </c>
       <c r="I14" t="n">
-        <v>6.758801464457065e-05</v>
+        <v>0.00065939238993451</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001733007811708376</v>
+        <v>0.0002234159910585731</v>
       </c>
       <c r="K14" t="n">
-        <v>1.996977698581759e-05</v>
+        <v>0.003435318591073155</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002309311530552804</v>
+        <v>7.02252727933228e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>2.66575825662585e-05</v>
+        <v>0.0004990622983314097</v>
       </c>
       <c r="N14" t="n">
-        <v>1.912370316858869e-05</v>
+        <v>0.0002625968481879681</v>
       </c>
       <c r="O14" t="n">
-        <v>9.81388075160794e-06</v>
+        <v>0.001154388766735792</v>
       </c>
       <c r="P14" t="n">
-        <v>5.140127541380934e-05</v>
+        <v>0.0002413186739431694</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.549759175162762e-05</v>
+        <v>0.0001780540042091161</v>
       </c>
       <c r="R14" t="n">
-        <v>8.069569594226778e-05</v>
+        <v>0.000681525852996856</v>
       </c>
       <c r="S14" t="n">
-        <v>2.052045147138415e-06</v>
+        <v>0.000188314777915366</v>
       </c>
       <c r="T14" t="n">
-        <v>5.602537567028776e-05</v>
+        <v>0.00041594059439376</v>
       </c>
       <c r="U14" t="n">
-        <v>9.449080607737415e-06</v>
+        <v>2.658635457919445e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>2.010480966418982e-05</v>
+        <v>0.0002292959106853232</v>
       </c>
       <c r="W14" t="n">
-        <v>6.564650448126486e-06</v>
+        <v>0.0003594657173380256</v>
       </c>
       <c r="X14" t="n">
-        <v>3.927858870156342e-06</v>
+        <v>0.0001808006782084703</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.614064967725426e-05</v>
+        <v>6.908408249728382e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.295454345992766e-05</v>
+        <v>0.000536738836672157</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.388113201363012e-06</v>
+        <v>0.0002643791376613081</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.728182365302928e-06</v>
+        <v>0.0002589089854154736</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.497870344901457e-06</v>
+        <v>0.0001823353377403691</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.954506377747748e-06</v>
+        <v>0.0001477868936490268</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.929515514755622e-05</v>
+        <v>0.0001958820794243366</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.434924110479187e-06</v>
+        <v>3.366581950103864e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.277198680327274e-05</v>
+        <v>6.626610411331058e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.288127168663777e-05</v>
+        <v>7.015810115262866e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.886477785883471e-05</v>
+        <v>2.627723733894527e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5.917534144828096e-05</v>
+        <v>0.000165001314599067</v>
       </c>
       <c r="AK14" t="n">
-        <v>4.130990782869048e-05</v>
+        <v>0.0005129930796101689</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.443975533125922e-05</v>
+        <v>0.0004245954041834921</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.299140032846481e-05</v>
+        <v>0.0001317017304245383</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.712174268206581e-05</v>
+        <v>0.00026314752176404</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.81711810809793e-06</v>
+        <v>0.000236154068261385</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.598062777309678e-06</v>
+        <v>0.0003279149241279811</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.943953975569457e-07</v>
+        <v>0.0002231803664471954</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.557008701842278e-05</v>
+        <v>8.97034551599063e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.073222837381763e-06</v>
+        <v>0.0002602206950541586</v>
       </c>
       <c r="AT14" t="n">
-        <v>8.581358270021155e-05</v>
+        <v>0.0002756398171186447</v>
       </c>
       <c r="AU14" t="n">
-        <v>4.621625339495949e-05</v>
+        <v>0.002395435236394405</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0001096960622817278</v>
+        <v>0.0004316969425417483</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.650757571449503e-05</v>
+        <v>7.445483788615093e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.02595196646871e-06</v>
+        <v>8.692317351233214e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.375603308901191e-05</v>
+        <v>0.0003603432851377875</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.165267505915835e-05</v>
+        <v>0.0006580305634997785</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.807876808219589e-05</v>
+        <v>0.000418921816162765</v>
       </c>
       <c r="BB14" t="n">
-        <v>3.951786311517935e-06</v>
+        <v>0.0002177967253373936</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.686324842215981e-05</v>
+        <v>0.0001899121562018991</v>
       </c>
       <c r="BD14" t="n">
-        <v>7.984897820279002e-06</v>
+        <v>0.0005346187390387058</v>
       </c>
       <c r="BE14" t="n">
-        <v>7.513660239055753e-05</v>
+        <v>0.0005369714926928282</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.392977527662879e-06</v>
+        <v>9.533456614008173e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.984192153438926e-05</v>
+        <v>0.0009622533107176423</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.201255690830294e-05</v>
+        <v>0.000657912518363446</v>
       </c>
       <c r="BI14" t="n">
-        <v>6.554393621627241e-05</v>
+        <v>0.0001465335371904075</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.690856308618095e-05</v>
+        <v>0.0003492776013445109</v>
       </c>
       <c r="BK14" t="n">
-        <v>2.53728521784069e-05</v>
+        <v>0.0005166225600987673</v>
       </c>
       <c r="BL14" t="n">
-        <v>8.708690984349232e-06</v>
+        <v>0.0001288246130570769</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.428203540854156e-05</v>
+        <v>0.0004360439488664269</v>
       </c>
       <c r="BN14" t="n">
-        <v>3.977896994911134e-05</v>
+        <v>9.339325333712623e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>3.774312517634826e-06</v>
+        <v>9.29082598304376e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>3.878486313624308e-05</v>
+        <v>8.740630437387154e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>5.756050995842088e-06</v>
+        <v>0.0001695942773949355</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.42091612360673e-05</v>
+        <v>0.0002502007118891925</v>
       </c>
       <c r="BS14" t="n">
-        <v>3.860849756165408e-05</v>
+        <v>5.276987212710083e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.155083620891673e-06</v>
+        <v>0.0001371926628053188</v>
       </c>
       <c r="BU14" t="n">
-        <v>7.757153070997447e-05</v>
+        <v>3.089000529143959e-05</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.793749834178016e-05</v>
+        <v>0.001302944030612707</v>
       </c>
       <c r="BW14" t="n">
-        <v>4.569149677990936e-05</v>
+        <v>0.0001800228492356837</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.352642670506611e-05</v>
+        <v>0.0002044078282779083</v>
       </c>
       <c r="BY14" t="n">
-        <v>4.003458889201283e-05</v>
+        <v>0.0001010378473438323</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.831486952141859e-05</v>
+        <v>0.0001814131246646866</v>
       </c>
       <c r="CA14" t="n">
-        <v>2.726228558458388e-07</v>
+        <v>0.0001317189598921686</v>
       </c>
       <c r="CB14" t="n">
-        <v>5.283825430524303e-07</v>
+        <v>7.511259173043072e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.589748666854575e-05</v>
+        <v>7.095192995620891e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>3.980867404607125e-05</v>
+        <v>0.0001724522007862106</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.657608951674774e-05</v>
+        <v>0.000619681435637176</v>
       </c>
       <c r="CF14" t="n">
-        <v>4.763866309076548e-05</v>
+        <v>0.0001032346626743674</v>
       </c>
       <c r="CG14" t="n">
-        <v>7.243865184136666e-06</v>
+        <v>0.0001043530501192436</v>
       </c>
       <c r="CH14" t="n">
-        <v>7.405246833513957e-06</v>
+        <v>0.0001148991723312065</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.763520231179427e-05</v>
+        <v>0.0001485629036324099</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9.159697583527304e-06</v>
+        <v>0.0002266421215608716</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.123635956901126e-05</v>
+        <v>7.059287599986419e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.356931418034947e-06</v>
+        <v>0.0001690173521637917</v>
       </c>
       <c r="CM14" t="n">
-        <v>8.724358849576674e-06</v>
+        <v>0.0008805063553154469</v>
       </c>
       <c r="CN14" t="n">
-        <v>5.594498361460865e-05</v>
+        <v>0.0001358927838737145</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.51353376370389e-05</v>
+        <v>0.0001872565189842135</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.779320336936507e-05</v>
+        <v>0.001095279818400741</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.699162385193631e-05</v>
+        <v>0.0005429125158116221</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.068818801286398e-05</v>
+        <v>0.0007014228613115847</v>
       </c>
       <c r="CS14" t="n">
-        <v>4.849635388382012e-06</v>
+        <v>0.0006165137747302651</v>
       </c>
       <c r="CT14" t="n">
-        <v>6.38961046206532e-06</v>
+        <v>0.0003684494295157492</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.055771917890524e-05</v>
+        <v>0.0003251582093071193</v>
       </c>
       <c r="CV14" t="n">
-        <v>3.703490074258298e-05</v>
+        <v>0.0001656257372815162</v>
       </c>
       <c r="CW14" t="n">
-        <v>4.270348290447146e-05</v>
+        <v>0.0005676117725670338</v>
       </c>
       <c r="CX14" t="n">
-        <v>5.086872988613322e-05</v>
+        <v>9.615143062546849e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.420453600076144e-06</v>
+        <v>0.0002930252230726182</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2.993841553688981e-05</v>
+        <v>0.0001352988183498383</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.813094786484726e-05</v>
+        <v>7.947250560391694e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>8.720033292775042e-06</v>
+        <v>0.0002206504868809134</v>
       </c>
       <c r="DC14" t="n">
-        <v>8.037126463023014e-06</v>
+        <v>0.0001799060119083151</v>
       </c>
       <c r="DD14" t="n">
-        <v>5.363728632801212e-06</v>
+        <v>0.0001723882887745276</v>
       </c>
       <c r="DE14" t="n">
-        <v>9.584066901879851e-06</v>
+        <v>0.0002806545817293227</v>
       </c>
       <c r="DF14" t="n">
-        <v>8.740385237615556e-05</v>
+        <v>0.000551530160009861</v>
       </c>
       <c r="DG14" t="n">
-        <v>2.067991954390891e-05</v>
+        <v>0.0001470568822696805</v>
       </c>
       <c r="DH14" t="n">
-        <v>1.413885456713615e-05</v>
+        <v>0.0005524563021026552</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.829976776614785e-05</v>
+        <v>0.001231647795066237</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.943586539709941e-06</v>
+        <v>0.001186374807730317</v>
       </c>
       <c r="DK14" t="n">
-        <v>9.291019523516297e-06</v>
+        <v>0.0001345831406069919</v>
       </c>
       <c r="DL14" t="n">
-        <v>4.440444172360003e-07</v>
+        <v>0.0002396773343207315</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.558408985147253e-05</v>
+        <v>0.0008612981182523072</v>
       </c>
       <c r="DN14" t="n">
-        <v>3.012512024724856e-06</v>
+        <v>0.0002336816105525941</v>
       </c>
       <c r="DO14" t="n">
-        <v>6.342690903693438e-05</v>
+        <v>0.0001059314017766155</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.802280894480646e-05</v>
+        <v>0.0002681733458302915</v>
       </c>
       <c r="DQ14" t="n">
-        <v>6.723957994836383e-07</v>
+        <v>0.0004239326517563313</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.306241028942168e-05</v>
+        <v>0.0001678353291936219</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.534675357106607e-05</v>
+        <v>0.0004054759338032454</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.478736521676183e-06</v>
+        <v>0.0003566736704669893</v>
       </c>
       <c r="DU14" t="n">
-        <v>9.606861567590386e-06</v>
+        <v>0.000307325943140313</v>
       </c>
       <c r="DV14" t="n">
-        <v>7.149770226533292e-06</v>
+        <v>0.0002277263847645372</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.600319592398591e-05</v>
+        <v>8.48897616378963e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.660111411183607e-05</v>
+        <v>0.0004221591807436198</v>
       </c>
       <c r="DY14" t="n">
-        <v>2.782218643915257e-06</v>
+        <v>0.0001742387830745429</v>
       </c>
       <c r="DZ14" t="n">
-        <v>2.798200512188487e-06</v>
+        <v>0.0004962297971360385</v>
       </c>
       <c r="EA14" t="n">
-        <v>3.095995634794235e-05</v>
+        <v>0.0003069161321036518</v>
       </c>
       <c r="EB14" t="n">
-        <v>1.426966264261864e-05</v>
+        <v>0.0001505095133325085</v>
       </c>
       <c r="EC14" t="n">
-        <v>3.234747964597773e-06</v>
+        <v>7.643689605174586e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.639758531586267e-05</v>
+        <v>0.0003267455904278904</v>
       </c>
       <c r="EE14" t="n">
-        <v>4.338320650276728e-06</v>
+        <v>0.0007616282673552632</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.446096474770457e-05</v>
+        <v>0.0005612136446870863</v>
       </c>
       <c r="EG14" t="n">
-        <v>3.787261084653437e-05</v>
+        <v>0.0008951883064582944</v>
       </c>
       <c r="EH14" t="n">
-        <v>4.491113577387296e-05</v>
+        <v>6.432541704270989e-05</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.382597201882163e-05</v>
+        <v>0.0001813791604945436</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.050846185535192e-05</v>
+        <v>9.435112588107586e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>4.890219861408696e-05</v>
+        <v>0.0003271212626714259</v>
       </c>
       <c r="EL14" t="n">
-        <v>6.198365099407965e-06</v>
+        <v>0.0003212945302948356</v>
       </c>
       <c r="EM14" t="n">
-        <v>3.827485124929808e-05</v>
+        <v>0.0001746903581079096</v>
       </c>
       <c r="EN14" t="n">
-        <v>2.042757114395499e-05</v>
+        <v>5.940150003880262e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>1.477297064411687e-05</v>
+        <v>0.0002581137814559042</v>
       </c>
       <c r="EP14" t="n">
-        <v>2.143279198207892e-05</v>
+        <v>0.0003381170681677759</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.091129706765059e-05</v>
+        <v>8.285448711831123e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>5.213291842665058e-06</v>
+        <v>0.000418306648498401</v>
       </c>
       <c r="ES14" t="n">
-        <v>2.055183540505823e-05</v>
+        <v>0.0002797093475237489</v>
       </c>
       <c r="ET14" t="n">
-        <v>2.680862598936073e-05</v>
+        <v>4.762167372973636e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>2.862711698981002e-05</v>
+        <v>0.0005885777645744383</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.879000410553999e-05</v>
+        <v>0.0004540204245131463</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.466978730808478e-05</v>
+        <v>0.0001851621636888012</v>
       </c>
       <c r="EX14" t="n">
-        <v>3.592653229134157e-05</v>
+        <v>0.000229274810408242</v>
       </c>
       <c r="EY14" t="n">
-        <v>3.941680188290775e-05</v>
+        <v>0.0005826235865242779</v>
       </c>
       <c r="EZ14" t="n">
-        <v>4.952156086801551e-05</v>
+        <v>3.88164771720767e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>2.675475116120651e-06</v>
+        <v>1.325404082308523e-05</v>
       </c>
       <c r="FB14" t="n">
-        <v>2.201244569732808e-05</v>
+        <v>0.000108859094325453</v>
       </c>
       <c r="FC14" t="n">
-        <v>4.530608293862315e-06</v>
+        <v>0.0001204452273668721</v>
       </c>
       <c r="FD14" t="n">
-        <v>1.062782666849671e-05</v>
+        <v>0.0003317566006444395</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.391987825627439e-05</v>
+        <v>0.0001440963242202997</v>
       </c>
       <c r="FF14" t="n">
-        <v>1.108601099986117e-05</v>
+        <v>0.0002812842139974236</v>
       </c>
       <c r="FG14" t="n">
-        <v>2.960274287033826e-05</v>
+        <v>0.0001144496854976751</v>
       </c>
       <c r="FH14" t="n">
-        <v>8.208949111576658e-06</v>
+        <v>0.0002643500629346818</v>
       </c>
       <c r="FI14" t="n">
-        <v>4.049470589961857e-05</v>
+        <v>0.0003253495669923723</v>
       </c>
       <c r="FJ14" t="n">
-        <v>3.762235428439453e-05</v>
+        <v>0.0005794989410787821</v>
       </c>
       <c r="FK14" t="n">
-        <v>5.583100119110895e-06</v>
+        <v>0.0002302719076396897</v>
       </c>
       <c r="FL14" t="n">
-        <v>2.434331872791518e-05</v>
+        <v>6.936895078979433e-05</v>
       </c>
       <c r="FM14" t="n">
-        <v>6.485885023721494e-06</v>
+        <v>0.0001722056185826659</v>
       </c>
       <c r="FN14" t="n">
-        <v>3.751576514332555e-06</v>
+        <v>0.0001363222399959341</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.09469547169283e-05</v>
+        <v>0.0002502445131540298</v>
       </c>
       <c r="FP14" t="n">
-        <v>3.507971086946782e-06</v>
+        <v>0.0006497618742287159</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0001171506301034242</v>
+        <v>0.0002649548696354032</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.701054497971199e-05</v>
+        <v>0.0003005223697982728</v>
       </c>
       <c r="FS14" t="n">
-        <v>2.906299960159231e-05</v>
+        <v>0.000502966227941215</v>
       </c>
       <c r="FT14" t="n">
-        <v>3.599099727580324e-06</v>
+        <v>9.294912160839885e-05</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.95574939425569e-05</v>
+        <v>0.0002811792655847967</v>
       </c>
       <c r="FV14" t="n">
-        <v>2.708147803787142e-07</v>
+        <v>0.0001041432988131419</v>
       </c>
       <c r="FW14" t="n">
-        <v>4.446494131116197e-06</v>
+        <v>2.798574132611975e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>1.353969764750218e-06</v>
+        <v>0.0002305346424691379</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.032285374298226e-05</v>
+        <v>0.000729277147911489</v>
       </c>
       <c r="FZ14" t="n">
-        <v>7.173945505201118e-06</v>
+        <v>0.0001017888644128107</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.968490778381238e-06</v>
+        <v>0.0001959515066118911</v>
       </c>
       <c r="GB14" t="n">
-        <v>3.71230453311e-06</v>
+        <v>1.62962078320561e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.302226832602173e-05</v>
+        <v>0.000156287889694795</v>
       </c>
       <c r="GD14" t="n">
-        <v>3.13186610583216e-05</v>
+        <v>0.0003006122133228928</v>
       </c>
       <c r="GE14" t="n">
-        <v>3.735288828465855e-06</v>
+        <v>8.680026076035574e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.299851828662213e-05</v>
+        <v>0.0002097943070111796</v>
       </c>
       <c r="GG14" t="n">
-        <v>5.96601876168279e-06</v>
+        <v>0.0002751450520008802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.05392060428857803</v>
+        <v>1.180318832397461</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2181719839572906</v>
+        <v>0.2624476253986359</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3560904860496521</v>
+        <v>0.03602723777294159</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3580809235572815</v>
+        <v>0.2170795798301697</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1163397580385208</v>
+        <v>0.1146289333701134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08499918878078461</v>
+        <v>0.824756920337677</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08586715906858444</v>
+        <v>0.2843971848487854</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03885763138532639</v>
+        <v>0.2468066364526749</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04602805897593498</v>
+        <v>0.1478591710329056</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03519309312105179</v>
+        <v>0.8320124745368958</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1914578229188919</v>
+        <v>0.2442663460969925</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3941405415534973</v>
+        <v>0.08131936937570572</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3065604567527771</v>
+        <v>0.1893030107021332</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09171602874994278</v>
+        <v>0.1216944605112076</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04968446120619774</v>
+        <v>0.7159577012062073</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02197878807783127</v>
+        <v>0.517544150352478</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.08139403909444809</v>
+        <v>0.345853716135025</v>
       </c>
       <c r="R15" t="n">
-        <v>0.00123521126806736</v>
+        <v>0.05499375611543655</v>
       </c>
       <c r="S15" t="n">
-        <v>0.011417749337852</v>
+        <v>0.122728168964386</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03113104589283466</v>
+        <v>0.301302045583725</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01109094545245171</v>
+        <v>0.08859209716320038</v>
       </c>
       <c r="V15" t="n">
-        <v>0.001239951467141509</v>
+        <v>0.1868656277656555</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1551446914672852</v>
+        <v>0.4058549702167511</v>
       </c>
       <c r="X15" t="n">
-        <v>0.03809220716357231</v>
+        <v>0.1560489535331726</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05298023298382759</v>
+        <v>0.210093691945076</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006131760776042938</v>
+        <v>0.1270359307527542</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.03068160824477673</v>
+        <v>0.01843433082103729</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1279953122138977</v>
+        <v>0.2663926184177399</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1078021675348282</v>
+        <v>0.1188983246684074</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.08487942069768906</v>
+        <v>0.149054080247879</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.07908442616462708</v>
+        <v>0.0740465372800827</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1403475403785706</v>
+        <v>0.1120143160223961</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1348060220479965</v>
+        <v>0.1418112367391586</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.03722897544503212</v>
+        <v>0.05035024881362915</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.01166259683668613</v>
+        <v>0.05687310546636581</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1554418057203293</v>
+        <v>0.03541107103228569</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.1411783695220947</v>
+        <v>0.2485543936491013</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.08706034719944</v>
+        <v>0.1174021139740944</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.05911604687571526</v>
+        <v>0.1018578112125397</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0167219378054142</v>
+        <v>0.18299899995327</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.05252332612872124</v>
+        <v>0.03424657136201859</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.06869345903396606</v>
+        <v>0.05385412648320198</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.002398274838924408</v>
+        <v>0.03006621822714806</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.02124607563018799</v>
+        <v>0.141258493065834</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.007731908932328224</v>
+        <v>0.01079247612506151</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.08519422262907028</v>
+        <v>0.7277436852455139</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.1165462359786034</v>
+        <v>0.2824447453022003</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1438151448965073</v>
+        <v>0.1099474802613258</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.03789633512496948</v>
+        <v>0.1571962535381317</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.122150219976902</v>
+        <v>0.5958960652351379</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.06545934826135635</v>
+        <v>0.6714555621147156</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.1264375001192093</v>
+        <v>0.05543580651283264</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.1301041692495346</v>
+        <v>0.353589653968811</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1059936732053757</v>
+        <v>0.1189827397465706</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.02886955067515373</v>
+        <v>0.2096754014492035</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.07143434882164001</v>
+        <v>0.4472244381904602</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.07797545194625854</v>
+        <v>0.1104241758584976</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.07317472249269485</v>
+        <v>0.165772870182991</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1954254806041718</v>
+        <v>0.05268099904060364</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.1828368008136749</v>
+        <v>0.03570632264018059</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.03317519277334213</v>
+        <v>0.3716038465499878</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.1062774732708931</v>
+        <v>0.1683153361082077</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.06621337682008743</v>
+        <v>0.04659848660230637</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.09213557094335556</v>
+        <v>0.02140155807137489</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.03842116892337799</v>
+        <v>0.2061213105916977</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.08315685391426086</v>
+        <v>0.05190711468458176</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.03558958321809769</v>
+        <v>0.2324418872594833</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.00943134818226099</v>
+        <v>0.1896874457597733</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.04213814437389374</v>
+        <v>0.1815392524003983</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.1079100221395493</v>
+        <v>0.1858390867710114</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.1010731682181358</v>
+        <v>0.1701963841915131</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.03750622645020485</v>
+        <v>0.1692915707826614</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.1464735865592957</v>
+        <v>0.3561715483665466</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.04679233953356743</v>
+        <v>0.2577700614929199</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.09651032090187073</v>
+        <v>0.105206161737442</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.06241469830274582</v>
+        <v>0.1410582214593887</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.09258627891540527</v>
+        <v>0.387031614780426</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.03560414537787437</v>
+        <v>0.4585424661636353</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.1111731454730034</v>
+        <v>0.05101502686738968</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.1729360073804855</v>
+        <v>0.2427727282047272</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1071904748678207</v>
+        <v>0.0170366894453764</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.1070437803864479</v>
+        <v>0.2071567475795746</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.03552279621362686</v>
+        <v>0.2340685129165649</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.08367928862571716</v>
+        <v>0.009120514616370201</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.06661758571863174</v>
+        <v>0.0006161481142044067</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.003321267897263169</v>
+        <v>0.08329862356185913</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.06899961829185486</v>
+        <v>0.1400411128997803</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.04948628321290016</v>
+        <v>0.02694472298026085</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.02428604103624821</v>
+        <v>0.2237138301134109</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.01604621671140194</v>
+        <v>0.0202200785279274</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.03219988197088242</v>
+        <v>0.03247847408056259</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0114652868360281</v>
+        <v>0.06939671188592911</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.004202453419566154</v>
+        <v>0.004537966102361679</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.08923677355051041</v>
+        <v>0.006920285522937775</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.06077287346124649</v>
+        <v>0.625977098941803</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.2470741868019104</v>
+        <v>0.1016014590859413</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.130263477563858</v>
+        <v>0.08734869211912155</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.08093030005693436</v>
+        <v>0.04722239077091217</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.00938730500638485</v>
+        <v>0.02921108342707157</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.1184922456741333</v>
+        <v>0.1915698796510696</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.02139718271791935</v>
+        <v>0.2226179391145706</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.08700765669345856</v>
+        <v>0.01289805956184864</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.06451135128736496</v>
+        <v>0.02510286867618561</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.004702306352555752</v>
+        <v>0.07357688993215561</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.07313738763332367</v>
+        <v>0.1475271880626678</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.05305542051792145</v>
+        <v>6.191432476043701e-06</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.03284661471843719</v>
+        <v>0.2236250042915344</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.03840287774801254</v>
+        <v>0.03981001675128937</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.06023527681827545</v>
+        <v>0.08251099288463593</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.004009990021586418</v>
+        <v>0.109473742544651</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.3584603667259216</v>
+        <v>0.04461254179477692</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.08638382703065872</v>
+        <v>0.1613059341907501</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01755164191126823</v>
+        <v>0.3635796308517456</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.001763286534696817</v>
+        <v>0.002030434086918831</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.1747504323720932</v>
+        <v>0.07045847177505493</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.06210076808929443</v>
+        <v>0.2261217683553696</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.02865410409867764</v>
+        <v>0.1083736270666122</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.008541185408830643</v>
+        <v>0.1072840914130211</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.05056896433234215</v>
+        <v>0.008241094648838043</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.02683700062334538</v>
+        <v>0.1055444628000259</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.007458969950675964</v>
+        <v>0.0298868790268898</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.1014737263321877</v>
+        <v>0.04442330077290535</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.01320262905210257</v>
+        <v>0.1124017238616943</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.05231061577796936</v>
+        <v>0.1855147331953049</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.07685545831918716</v>
+        <v>0.4045686423778534</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.01435255166143179</v>
+        <v>0.04623319208621979</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.04836267605423927</v>
+        <v>0.01469737198203802</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.06320790946483612</v>
+        <v>0.1713905185461044</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.03263312950730324</v>
+        <v>0.02710531279444695</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.01903275214135647</v>
+        <v>0.03964009135961533</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.06054249778389931</v>
+        <v>0.02378075942397118</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.05441327020525932</v>
+        <v>0.3302265703678131</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.06062456592917442</v>
+        <v>0.02017518505454063</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.04606135189533234</v>
+        <v>0.02929426357150078</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.04325797781348228</v>
+        <v>0.125989094376564</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.1060594022274017</v>
+        <v>0.1558857858181</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.129062756896019</v>
+        <v>0.165084645152092</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.09974350780248642</v>
+        <v>0.02859915792942047</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.1242404207587242</v>
+        <v>0.07607606053352356</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.1707300543785095</v>
+        <v>0.01644260250031948</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.1014473438262939</v>
+        <v>0.02583561837673187</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.02633569948375225</v>
+        <v>0.009257040917873383</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.05019388347864151</v>
+        <v>0.03606799617409706</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.04747872427105904</v>
+        <v>0.04177474975585938</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.06242527812719345</v>
+        <v>0.07893306761980057</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.03779753670096397</v>
+        <v>0.2749474346637726</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.01373104937374592</v>
+        <v>0.06947876513004303</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0461457222700119</v>
+        <v>0.1030310243368149</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.01676111295819283</v>
+        <v>0.3104412257671356</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.005598765332251787</v>
+        <v>0.1382138133049011</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.112411841750145</v>
+        <v>0.1710902601480484</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.06538421660661697</v>
+        <v>0.1514442712068558</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.02229108288884163</v>
+        <v>0.1365577876567841</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.1126988977193832</v>
+        <v>0.154307559132576</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.03243472799658775</v>
+        <v>0.1827547401189804</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0827280655503273</v>
+        <v>0.006807371973991394</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.07483477890491486</v>
+        <v>0.04828403517603874</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.01309466175734997</v>
+        <v>0.07718504220247269</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0719185546040535</v>
+        <v>0.1069734692573547</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.05587799847126007</v>
+        <v>0.05345487222075462</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.02394971996545792</v>
+        <v>0.2686589062213898</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.01689503341913223</v>
+        <v>0.03132621571421623</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.06304222345352173</v>
+        <v>0.1046399474143982</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.08498673886060715</v>
+        <v>0.07016362249851227</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.07590144127607346</v>
+        <v>0.0588342659175396</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.05374131351709366</v>
+        <v>0.01723785698413849</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.04857830330729485</v>
+        <v>0.09701593965291977</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.05016739666461945</v>
+        <v>0.01401578821241856</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.03592381626367569</v>
+        <v>0.06058432534337044</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.06302601099014282</v>
+        <v>0.01227173767983913</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.01182763651013374</v>
+        <v>0.02701780572533607</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.02252405136823654</v>
+        <v>0.2454353868961334</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.1647764295339584</v>
+        <v>0.1534387916326523</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0648159384727478</v>
+        <v>0.1370709389448166</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.03931809961795807</v>
+        <v>0.09993056952953339</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.1155148074030876</v>
+        <v>0.234009325504303</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.1259662210941315</v>
+        <v>0.3053976893424988</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.02379479631781578</v>
+        <v>0.1054039597511292</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.06670403480529785</v>
+        <v>0.02449970506131649</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.005114630796015263</v>
+        <v>0.005827286280691624</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.003531083464622498</v>
+        <v>0.1003322303295135</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.05924700945615768</v>
+        <v>0.02141768299043179</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.04934335872530937</v>
+        <v>0.06822192668914795</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.05288488417863846</v>
+        <v>0.05670862272381783</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.05119545012712479</v>
+        <v>0.1061685085296631</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.1169977411627769</v>
+        <v>0.07953757047653198</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.07893697172403336</v>
+        <v>0.07594138383865356</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.007598740048706532</v>
+        <v>0.130971685051918</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.05697163939476013</v>
+        <v>0.04311869293451309</v>
       </c>
     </row>
   </sheetData>
